--- a/fc-typology-data-generator-rev1.xlsx
+++ b/fc-typology-data-generator-rev1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/FCA-grammar-typology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6262F38-88E7-9547-9E20-0BDA2823B52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17117104-0694-AD4E-BC91-369CA91E8CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="500" windowWidth="36460" windowHeight="15480" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="500" windowWidth="35320" windowHeight="20800" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="typology.data26" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>Chinese</t>
     <phoneticPr fontId="1"/>
@@ -507,9 +507,6 @@
   </si>
   <si>
     <t>Sentence requires_Subj</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>Irish</t>
@@ -979,7 +976,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -988,12 +985,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,8 +1006,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1273,17 +1263,7 @@
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="61">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1311,41 +1291,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1839,13 +1784,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1863,37 +1816,6 @@
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2672,6 +2594,54 @@
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -2692,40 +2662,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AB22" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:AB22" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A1:AB22" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB22">
     <sortCondition descending="1" ref="AB1:AB22"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="62"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="60"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="57"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="56"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Relative_cl_follows_N" dataDxfId="55"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="53"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="51"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="50"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Obj_follows_V" dataDxfId="48"/>
-    <tableColumn id="28" xr3:uid="{797B11B6-B034-5741-89AB-7E651574C23F}" name="Subj_follows_V" dataDxfId="47"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sentence requires_Subj" dataDxfId="46"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="45"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="42"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="39"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="38"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="37"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Tense_agreesment" dataDxfId="36"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="sum" dataDxfId="35">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Language" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="has_definite_art" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="has_indefinite_art" dataDxfId="56"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="has_personal_pro" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="N_encodes_plurality" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="N_encodes_class" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="N_encodes_case" dataDxfId="52"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Relative_cl_follows_N" dataDxfId="51"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="has_postpositions" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="has_prepositions" dataDxfId="49"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="A_agrees_w_Nplurality" dataDxfId="48"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="A_agrees_w_Nclass" dataDxfId="47"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="A_agrees_w_Ncase" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="A_follows_N" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Obj_follows_V" dataDxfId="44"/>
+    <tableColumn id="28" xr3:uid="{797B11B6-B034-5741-89AB-7E651574C23F}" name="Subj_follows_V" dataDxfId="43"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sentence requires_Subj" dataDxfId="42"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="V_agrees_w_Subj" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="V_encodes_plurality" dataDxfId="40"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="V_encodes_class" dataDxfId="39"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="V_encodes_voice" dataDxfId="38"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="V_encodes_tense" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="V_encodes_person" dataDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="V_encodes_aspect" dataDxfId="35"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="V_infinitive_is_derived" dataDxfId="34"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="V_agrees_w_Obj" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Tense_agreesment" dataDxfId="32"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="sum" dataDxfId="31">
       <calculatedColumnFormula>SUM(B2:AA2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2734,37 +2704,37 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}" name="Table2" displayName="Table2" ref="A28:AB55" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}" name="Table2" displayName="Table2" ref="A28:AB55" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A28:AB55" xr:uid="{1667C932-3099-1E4F-937E-9E9C5CC83523}"/>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{E8A81ADF-8FDA-A64C-A57D-6FA12EDF766A}" name="Correlation" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{00BEF632-EA2D-6246-90B6-C0014D489FA1}" name="has_definite_art" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{BAB19402-C14F-964E-8182-E44F3A7A9DD0}" name="has_indefinite_art" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{8CD330E1-23DA-F741-8743-2999A04D5858}" name="has_personal_pro" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{BA2A0D1E-8A0F-4447-B4BC-A7D7381CE6C4}" name="N_encodes_plurality" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{F4EE229A-AD64-7747-8F4D-B69696AF555D}" name="N_encodes_class" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{03E0F05A-4C08-7B43-AEEF-D8A2D52EA73A}" name="N_encodes_case" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{7703BD9E-18FB-7F46-AB65-5E5CC6C87088}" name="Relative_cl_follows_N" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{84530509-1909-DB4B-A3B9-3C585ACBF333}" name="has_postpositions" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{759F2737-4544-3F46-A130-5C9565DE5D13}" name="has_prepositions" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{34F851A4-14B4-FD4E-A4AA-AA0C8D5DD781}" name="A_agrees_w_Nplurality" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{70E5ECEE-041A-BE48-90AF-840467EB4978}" name="A_agrees_w_Nclass" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{EE07A013-1C93-0F44-9C18-4AE1CA4D1ED3}" name="A_agrees_w_Ncase" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{679BC547-A9D5-9A49-80A9-B648709020F4}" name="A_follows_N" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{C35FA572-1689-074B-B324-B7C386EEF087}" name="Obj_follows_V" dataDxfId="17"/>
-    <tableColumn id="16" xr3:uid="{20B38B28-DAA3-4D40-8DAF-FAF653DFD38F}" name="Subj_follows_V" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{E5B7A97D-7E5B-2A42-8C7C-7FDD1C5F3326}" name="Sentence requires_Subj" dataDxfId="15"/>
-    <tableColumn id="18" xr3:uid="{AC8542AF-1D36-3948-B68E-98A0602A1621}" name="V_agrees_w_Subj" dataDxfId="14"/>
-    <tableColumn id="19" xr3:uid="{C6BC0E80-1C56-F547-A12C-033A42B40B92}" name="V_encodes_plurality" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{AF0DCB71-D1DD-B94F-BDE4-76F27102195A}" name="V_encodes_class" dataDxfId="12"/>
-    <tableColumn id="21" xr3:uid="{BD15E09B-4E36-A845-AAEF-BA7F1369B9A0}" name="V_encodes_voice" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{CD1412AE-E0C8-EE41-B1C6-E8C51EBB2FF2}" name="V_encodes_tense" dataDxfId="10"/>
-    <tableColumn id="23" xr3:uid="{ABE62467-3422-8543-A8D9-8B13977C9B33}" name="V_encodes_person" dataDxfId="9"/>
-    <tableColumn id="24" xr3:uid="{BF0BC527-606E-5045-97AA-1E9BC47976E3}" name="V_encodes_aspect" dataDxfId="8"/>
-    <tableColumn id="25" xr3:uid="{9DF274E4-3C86-F049-9D0D-F7F7301719C4}" name="V_infinitive_is_derived" dataDxfId="7"/>
-    <tableColumn id="26" xr3:uid="{BB73562D-4A24-814C-8639-43EE7D8D8C4A}" name="V_agrees_w_Obj" dataDxfId="6"/>
-    <tableColumn id="27" xr3:uid="{21C0EF0B-E5A8-A14E-BDBA-C7268E1655EB}" name="Tense_agreesment" dataDxfId="5"/>
-    <tableColumn id="28" xr3:uid="{1F4E77A4-0B94-184D-B025-77DA4D0B4E81}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E8A81ADF-8FDA-A64C-A57D-6FA12EDF766A}" name="Correlation" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00BEF632-EA2D-6246-90B6-C0014D489FA1}" name="has_definite_art" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{BAB19402-C14F-964E-8182-E44F3A7A9DD0}" name="has_indefinite_art" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{8CD330E1-23DA-F741-8743-2999A04D5858}" name="has_personal_pro" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{BA2A0D1E-8A0F-4447-B4BC-A7D7381CE6C4}" name="N_encodes_plurality" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{F4EE229A-AD64-7747-8F4D-B69696AF555D}" name="N_encodes_class" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{03E0F05A-4C08-7B43-AEEF-D8A2D52EA73A}" name="N_encodes_case" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{7703BD9E-18FB-7F46-AB65-5E5CC6C87088}" name="Relative_cl_follows_N" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{84530509-1909-DB4B-A3B9-3C585ACBF333}" name="has_postpositions" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{759F2737-4544-3F46-A130-5C9565DE5D13}" name="has_prepositions" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{34F851A4-14B4-FD4E-A4AA-AA0C8D5DD781}" name="A_agrees_w_Nplurality" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{70E5ECEE-041A-BE48-90AF-840467EB4978}" name="A_agrees_w_Nclass" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{EE07A013-1C93-0F44-9C18-4AE1CA4D1ED3}" name="A_agrees_w_Ncase" dataDxfId="16"/>
+    <tableColumn id="14" xr3:uid="{679BC547-A9D5-9A49-80A9-B648709020F4}" name="A_follows_N" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{C35FA572-1689-074B-B324-B7C386EEF087}" name="Obj_follows_V" dataDxfId="14"/>
+    <tableColumn id="16" xr3:uid="{20B38B28-DAA3-4D40-8DAF-FAF653DFD38F}" name="Subj_follows_V" dataDxfId="13"/>
+    <tableColumn id="17" xr3:uid="{E5B7A97D-7E5B-2A42-8C7C-7FDD1C5F3326}" name="Sentence requires_Subj" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{AC8542AF-1D36-3948-B68E-98A0602A1621}" name="V_agrees_w_Subj" dataDxfId="11"/>
+    <tableColumn id="19" xr3:uid="{C6BC0E80-1C56-F547-A12C-033A42B40B92}" name="V_encodes_plurality" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{AF0DCB71-D1DD-B94F-BDE4-76F27102195A}" name="V_encodes_class" dataDxfId="9"/>
+    <tableColumn id="21" xr3:uid="{BD15E09B-4E36-A845-AAEF-BA7F1369B9A0}" name="V_encodes_voice" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{CD1412AE-E0C8-EE41-B1C6-E8C51EBB2FF2}" name="V_encodes_tense" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{ABE62467-3422-8543-A8D9-8B13977C9B33}" name="V_encodes_person" dataDxfId="6"/>
+    <tableColumn id="24" xr3:uid="{BF0BC527-606E-5045-97AA-1E9BC47976E3}" name="V_encodes_aspect" dataDxfId="5"/>
+    <tableColumn id="25" xr3:uid="{9DF274E4-3C86-F049-9D0D-F7F7301719C4}" name="V_infinitive_is_derived" dataDxfId="4"/>
+    <tableColumn id="26" xr3:uid="{BB73562D-4A24-814C-8639-43EE7D8D8C4A}" name="V_agrees_w_Obj" dataDxfId="3"/>
+    <tableColumn id="27" xr3:uid="{21C0EF0B-E5A8-A14E-BDBA-C7268E1655EB}" name="Tense_agreesment" dataDxfId="2"/>
+    <tableColumn id="28" xr3:uid="{1F4E77A4-0B94-184D-B025-77DA4D0B4E81}" name="sum" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3103,25 +3073,25 @@
   <dimension ref="A1:AE55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="9700" ySplit="3540" topLeftCell="L15" activePane="bottomRight"/>
+      <pane xSplit="9700" ySplit="3540" topLeftCell="R36" activePane="bottomRight"/>
       <selection sqref="A1:AA22"/>
       <selection pane="topRight" activeCell="AJ3" sqref="AJ3"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomRight" activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="19" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
     <col min="2" max="16" width="7.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="10" customWidth="1"/>
     <col min="18" max="22" width="7.625" style="1" customWidth="1"/>
-    <col min="23" max="26" width="7.625" style="12" customWidth="1"/>
+    <col min="23" max="26" width="7.625" style="10" customWidth="1"/>
     <col min="27" max="27" width="7.625" style="1" customWidth="1"/>
     <col min="28" max="28" width="8.25" style="1" customWidth="1"/>
     <col min="29" max="29" width="3.875" style="1" customWidth="1"/>
     <col min="30" max="30" width="4" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.75" style="12" customWidth="1"/>
+    <col min="31" max="31" width="4.75" style="10" customWidth="1"/>
     <col min="32" max="33" width="4" style="1" customWidth="1"/>
     <col min="34" max="34" width="4.875" style="1" customWidth="1"/>
     <col min="35" max="16384" width="7.375" style="1"/>
@@ -3150,7 +3120,7 @@
         <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
@@ -3171,10 +3141,10 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>42</v>
@@ -3207,10 +3177,10 @@
         <v>36</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="20" x14ac:dyDescent="0.35">
@@ -3296,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="AB2" s="1">
-        <f>SUM(B2:AA2)</f>
+        <f t="shared" ref="AB2:AB22" si="0">SUM(B2:AA2)</f>
         <v>20</v>
       </c>
       <c r="AE2" s="1"/>
@@ -3384,14 +3354,14 @@
         <v>1</v>
       </c>
       <c r="AB3" s="1">
-        <f>SUM(B3:AA3)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AE3" s="1"/>
     </row>
     <row r="4" spans="1:31" ht="20" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -3399,7 +3369,7 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
@@ -3438,19 +3408,19 @@
       <c r="P4" s="1">
         <v>1</v>
       </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="4">
-        <v>1</v>
-      </c>
-      <c r="S4" s="4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="4">
-        <v>1</v>
-      </c>
-      <c r="U4" s="4">
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
         <v>1</v>
       </c>
       <c r="V4" s="1">
@@ -3459,10 +3429,10 @@
       <c r="W4" s="1">
         <v>1</v>
       </c>
-      <c r="X4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="4">
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
         <v>1</v>
       </c>
       <c r="Z4" s="1">
@@ -3472,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="AB4" s="1">
-        <f>SUM(B4:AA4)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="AE4" s="1"/>
@@ -3560,95 +3530,95 @@
         <v>1</v>
       </c>
       <c r="AB5" s="1">
-        <f>SUM(B5:AA5)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AE5" s="1"/>
     </row>
     <row r="6" spans="1:31" ht="40" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <v>1</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1</v>
-      </c>
-      <c r="T6" s="4">
-        <v>1</v>
-      </c>
-      <c r="U6" s="4">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4">
-        <v>1</v>
-      </c>
-      <c r="W6" s="4">
-        <v>1</v>
-      </c>
-      <c r="X6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4">
+      <c r="A6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <f>SUM(B6:AA6)</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="AE6" s="1"/>
@@ -3736,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="1">
-        <f>SUM(B7:AA7)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AE7" s="1"/>
@@ -3824,975 +3794,975 @@
         <v>0</v>
       </c>
       <c r="AB8" s="1">
-        <f>SUM(B8:AA8)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AE8" s="1"/>
     </row>
     <row r="9" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4">
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <v>1</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>1</v>
-      </c>
-      <c r="P9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="4">
-        <v>0</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1</v>
-      </c>
-      <c r="S9" s="4">
-        <v>1</v>
-      </c>
-      <c r="T9" s="4">
-        <v>1</v>
-      </c>
-      <c r="U9" s="4">
-        <v>1</v>
-      </c>
-      <c r="V9" s="4">
-        <v>1</v>
-      </c>
-      <c r="W9" s="4">
-        <v>1</v>
-      </c>
-      <c r="X9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="4">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1">
         <v>0</v>
       </c>
       <c r="AB9" s="1">
-        <f>SUM(B9:AA9)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AE9" s="1"/>
     </row>
     <row r="10" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7">
-        <v>1</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="O10" s="7">
-        <v>1</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>0</v>
-      </c>
-      <c r="R10" s="7">
-        <v>1</v>
-      </c>
-      <c r="S10" s="7">
-        <v>1</v>
-      </c>
-      <c r="T10" s="7">
-        <v>1</v>
-      </c>
-      <c r="U10" s="7">
-        <v>1</v>
-      </c>
-      <c r="V10" s="7">
-        <v>1</v>
-      </c>
-      <c r="W10" s="7">
-        <v>1</v>
-      </c>
-      <c r="X10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="7">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="V10" s="5">
+        <v>1</v>
+      </c>
+      <c r="W10" s="5">
+        <v>1</v>
+      </c>
+      <c r="X10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="5">
         <v>0</v>
       </c>
       <c r="AB10" s="1">
-        <f>SUM(B10:AA10)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="AE10" s="1"/>
     </row>
     <row r="11" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7">
-        <v>1</v>
-      </c>
-      <c r="L11" s="7">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>0</v>
-      </c>
-      <c r="R11" s="7">
-        <v>1</v>
-      </c>
-      <c r="S11" s="7">
-        <v>1</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0</v>
-      </c>
-      <c r="U11" s="7">
-        <v>1</v>
-      </c>
-      <c r="V11" s="7">
-        <v>1</v>
-      </c>
-      <c r="W11" s="7">
-        <v>1</v>
-      </c>
-      <c r="X11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="7">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>1</v>
+      </c>
+      <c r="V11" s="5">
+        <v>1</v>
+      </c>
+      <c r="W11" s="5">
+        <v>1</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="5">
         <v>0</v>
       </c>
       <c r="AB11" s="1">
-        <f>SUM(B11:AA11)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="AE11" s="1"/>
     </row>
     <row r="12" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7">
-        <v>1</v>
-      </c>
-      <c r="P12" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1</v>
-      </c>
-      <c r="R12" s="7">
-        <v>1</v>
-      </c>
-      <c r="S12" s="7">
-        <v>1</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0</v>
-      </c>
-      <c r="U12" s="7">
-        <v>1</v>
-      </c>
-      <c r="V12" s="7">
-        <v>1</v>
-      </c>
-      <c r="W12" s="7">
-        <v>1</v>
-      </c>
-      <c r="X12" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="7">
+      <c r="A12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>1</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1</v>
+      </c>
+      <c r="W12" s="5">
+        <v>1</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
         <v>1</v>
       </c>
       <c r="AB12" s="1">
-        <f>SUM(B12:AA12)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="AE12" s="1"/>
     </row>
     <row r="13" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
-        <v>0</v>
-      </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0</v>
-      </c>
-      <c r="R13" s="7">
-        <v>1</v>
-      </c>
-      <c r="S13" s="7">
-        <v>1</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0</v>
-      </c>
-      <c r="U13" s="7">
-        <v>1</v>
-      </c>
-      <c r="V13" s="7">
-        <v>1</v>
-      </c>
-      <c r="W13" s="7">
-        <v>1</v>
-      </c>
-      <c r="X13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="7">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>1</v>
+      </c>
+      <c r="V13" s="5">
+        <v>1</v>
+      </c>
+      <c r="W13" s="5">
+        <v>1</v>
+      </c>
+      <c r="X13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="5">
         <v>0</v>
       </c>
       <c r="AB13" s="1">
-        <f>SUM(B13:AA13)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AE13" s="1"/>
     </row>
     <row r="14" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>1</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0</v>
-      </c>
-      <c r="R14" s="7">
-        <v>1</v>
-      </c>
-      <c r="S14" s="7">
-        <v>1</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0</v>
-      </c>
-      <c r="U14" s="7">
-        <v>1</v>
-      </c>
-      <c r="V14" s="7">
-        <v>1</v>
-      </c>
-      <c r="W14" s="7">
-        <v>1</v>
-      </c>
-      <c r="X14" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="7">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
+        <v>1</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1</v>
+      </c>
+      <c r="X14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
         <v>0</v>
       </c>
       <c r="AB14" s="1">
-        <f>SUM(B14:AA14)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="AE14" s="1"/>
     </row>
     <row r="15" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>0</v>
-      </c>
-      <c r="L15" s="7">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7">
-        <v>0</v>
-      </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>1</v>
-      </c>
-      <c r="R15" s="7">
-        <v>1</v>
-      </c>
-      <c r="S15" s="7">
-        <v>0</v>
-      </c>
-      <c r="T15" s="7">
-        <v>0</v>
-      </c>
-      <c r="U15" s="7">
-        <v>1</v>
-      </c>
-      <c r="V15" s="7">
-        <v>1</v>
-      </c>
-      <c r="W15" s="7">
-        <v>1</v>
-      </c>
-      <c r="X15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="7">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1</v>
+      </c>
+      <c r="S15" s="5">
+        <v>0</v>
+      </c>
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
+        <v>1</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="5">
         <v>1</v>
       </c>
       <c r="AB15" s="1">
-        <f>SUM(B15:AA15)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="AE15" s="1"/>
     </row>
     <row r="16" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>1</v>
-      </c>
-      <c r="S16" s="7">
-        <v>1</v>
-      </c>
-      <c r="T16" s="7">
-        <v>0</v>
-      </c>
-      <c r="U16" s="7">
-        <v>1</v>
-      </c>
-      <c r="V16" s="7">
-        <v>1</v>
-      </c>
-      <c r="W16" s="7">
-        <v>1</v>
-      </c>
-      <c r="X16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="7">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1</v>
+      </c>
+      <c r="S16" s="5">
+        <v>1</v>
+      </c>
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
+        <v>1</v>
+      </c>
+      <c r="V16" s="5">
+        <v>1</v>
+      </c>
+      <c r="W16" s="5">
+        <v>1</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
         <v>0</v>
       </c>
       <c r="AB16" s="1">
-        <f>SUM(B16:AA16)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="10">
-        <v>0</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10">
-        <v>0</v>
-      </c>
-      <c r="J17" s="10">
-        <v>1</v>
-      </c>
-      <c r="K17" s="10">
-        <v>0</v>
-      </c>
-      <c r="L17" s="10">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="10">
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
-        <v>1</v>
-      </c>
-      <c r="P17" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="11">
-        <v>0</v>
-      </c>
-      <c r="R17" s="10">
-        <v>1</v>
-      </c>
-      <c r="S17" s="10">
-        <v>1</v>
-      </c>
-      <c r="T17" s="10">
-        <v>1</v>
-      </c>
-      <c r="U17" s="10">
-        <v>1</v>
-      </c>
-      <c r="V17" s="10">
-        <v>0</v>
-      </c>
-      <c r="W17" s="10">
-        <v>0</v>
-      </c>
-      <c r="X17" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="10">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="10">
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>1</v>
+      </c>
+      <c r="S17" s="8">
+        <v>1</v>
+      </c>
+      <c r="T17" s="8">
+        <v>1</v>
+      </c>
+      <c r="U17" s="8">
+        <v>1</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0</v>
+      </c>
+      <c r="W17" s="8">
+        <v>0</v>
+      </c>
+      <c r="X17" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="8">
         <v>0</v>
       </c>
       <c r="AB17" s="1">
-        <f>SUM(B17:AA17)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AE17" s="1"/>
     </row>
     <row r="18" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1</v>
-      </c>
-      <c r="H18" s="4">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
-        <v>0</v>
-      </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
-      <c r="R18" s="4">
-        <v>1</v>
-      </c>
-      <c r="S18" s="4">
-        <v>1</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
-        <v>1</v>
-      </c>
-      <c r="V18" s="4">
-        <v>1</v>
-      </c>
-      <c r="W18" s="4">
-        <v>1</v>
-      </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="4">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1</v>
+      </c>
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
         <v>0</v>
       </c>
       <c r="AB18" s="1">
-        <f>SUM(B18:AA18)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="AE18" s="1"/>
     </row>
     <row r="19" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
-        <v>0</v>
-      </c>
-      <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" s="4">
-        <v>0</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0</v>
-      </c>
-      <c r="S19" s="4">
-        <v>1</v>
-      </c>
-      <c r="T19" s="4">
-        <v>0</v>
-      </c>
-      <c r="U19" s="4">
-        <v>1</v>
-      </c>
-      <c r="V19" s="4">
-        <v>1</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="4">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="1">
         <v>0</v>
       </c>
       <c r="AB19" s="1">
-        <f>SUM(B19:AA19)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AE19" s="1"/>
@@ -4807,7 +4777,7 @@
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>0</v>
       </c>
       <c r="E20" s="1">
@@ -4846,19 +4816,19 @@
       <c r="P20" s="1">
         <v>0</v>
       </c>
-      <c r="Q20" s="11">
-        <v>0</v>
-      </c>
-      <c r="R20" s="10">
-        <v>0</v>
-      </c>
-      <c r="S20" s="10">
-        <v>0</v>
-      </c>
-      <c r="T20" s="10">
-        <v>0</v>
-      </c>
-      <c r="U20" s="10">
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="8">
+        <v>0</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0</v>
+      </c>
+      <c r="U20" s="8">
         <v>1</v>
       </c>
       <c r="V20" s="1">
@@ -4867,10 +4837,10 @@
       <c r="W20" s="1">
         <v>0</v>
       </c>
-      <c r="X20" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="10">
+      <c r="X20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="8">
         <v>1</v>
       </c>
       <c r="Z20" s="1">
@@ -4880,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="AB20" s="1">
-        <f>SUM(B20:AA20)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AE20" s="1"/>
     </row>
     <row r="21" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="1">
@@ -4895,7 +4865,7 @@
       <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>0</v>
       </c>
       <c r="E21" s="1">
@@ -4934,19 +4904,19 @@
       <c r="P21" s="1">
         <v>0</v>
       </c>
-      <c r="Q21" s="11">
-        <v>0</v>
-      </c>
-      <c r="R21" s="10">
-        <v>0</v>
-      </c>
-      <c r="S21" s="10">
-        <v>0</v>
-      </c>
-      <c r="T21" s="10">
-        <v>0</v>
-      </c>
-      <c r="U21" s="10">
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="8">
+        <v>0</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0</v>
+      </c>
+      <c r="U21" s="8">
         <v>1</v>
       </c>
       <c r="V21" s="1">
@@ -4955,10 +4925,10 @@
       <c r="W21" s="1">
         <v>0</v>
       </c>
-      <c r="X21" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="10">
+      <c r="X21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="8">
         <v>1</v>
       </c>
       <c r="Z21" s="1">
@@ -4968,13 +4938,13 @@
         <v>0</v>
       </c>
       <c r="AB21" s="1">
-        <f>SUM(B21:AA21)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AE21" s="1"/>
     </row>
     <row r="22" spans="1:31" ht="20" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="1">
@@ -4983,7 +4953,7 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="1">
@@ -5022,19 +4992,19 @@
       <c r="P22" s="1">
         <v>0</v>
       </c>
-      <c r="Q22" s="11">
-        <v>1</v>
-      </c>
-      <c r="R22" s="10">
-        <v>0</v>
-      </c>
-      <c r="S22" s="10">
-        <v>0</v>
-      </c>
-      <c r="T22" s="10">
-        <v>0</v>
-      </c>
-      <c r="U22" s="10">
+      <c r="Q22" s="9">
+        <v>1</v>
+      </c>
+      <c r="R22" s="8">
+        <v>0</v>
+      </c>
+      <c r="S22" s="8">
+        <v>0</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0</v>
+      </c>
+      <c r="U22" s="8">
         <v>0</v>
       </c>
       <c r="V22" s="1">
@@ -5043,10 +5013,10 @@
       <c r="W22" s="1">
         <v>0</v>
       </c>
-      <c r="X22" s="10">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="10">
+      <c r="X22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="8">
         <v>0</v>
       </c>
       <c r="Z22" s="1">
@@ -5056,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="1">
-        <f>SUM(B22:AA22)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AE22" s="1"/>
@@ -5070,103 +5040,103 @@
         <v>10</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ref="C24:AA24" si="0">SUM(C2:C22)</f>
+        <f t="shared" ref="C24:AA24" si="1">SUM(C2:C22)</f>
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" ref="P24" si="1">SUM(P2:P22)</f>
+        <f t="shared" ref="P24" si="2">SUM(P2:P22)</f>
         <v>2</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="R24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="V24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Y24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AB24" s="1">
@@ -5179,117 +5149,117 @@
         <v>19</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" ref="B25:AB25" si="2">AVERAGE(B$2:B$22)</f>
+        <f t="shared" ref="B25:AB25" si="3">AVERAGE(B$2:B$22)</f>
         <v>0.47619047619047616</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76190476190476186</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76190476190476186</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52380952380952384</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.52380952380952384</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38095238095238093</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80952380952380953</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80952380952380953</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.80952380952380953</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.38095238095238093</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.95238095238095233</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.90476190476190477</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.76190476190476186</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.476190476190476</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="60" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
@@ -5310,13 +5280,13 @@
         <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>32</v>
@@ -5328,15 +5298,15 @@
         <v>34</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q28" s="10" t="s">
         <v>42</v>
       </c>
       <c r="R28" s="1" t="s">
@@ -5354,1694 +5324,1691 @@
       <c r="V28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W28" s="12" t="s">
+      <c r="W28" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="X28" s="12" t="s">
+      <c r="X28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Y28" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z28" s="12" t="s">
+      <c r="Y28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z28" s="10" t="s">
         <v>36</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="11">
         <f>_xlfn.LET(_xlpm.a,B$2:B$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="C29" s="14">
-        <f t="shared" ref="C29:AB29" si="3">_xlfn.LET(_xlpm.a,C$2:C$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="C29" s="11">
+        <f t="shared" ref="C29:AB29" si="4">_xlfn.LET(_xlpm.a,C$2:C$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.66332495807108016</v>
       </c>
-      <c r="D29" s="14">
-        <f t="shared" si="3"/>
+      <c r="D29" s="11">
+        <f t="shared" si="4"/>
         <v>0.38924947208076155</v>
       </c>
-      <c r="E29" s="14">
-        <f t="shared" si="3"/>
+      <c r="E29" s="11">
+        <f t="shared" si="4"/>
         <v>0.60302268915552715</v>
       </c>
-      <c r="F29" s="14">
-        <f t="shared" si="3"/>
+      <c r="F29" s="11">
+        <f t="shared" si="4"/>
         <v>0.44038550605054416</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="11">
         <f>_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.44038550605054438</v>
       </c>
-      <c r="H29" s="14">
-        <f t="shared" si="3"/>
+      <c r="H29" s="11">
+        <f t="shared" si="4"/>
         <v>0.53300179088902622</v>
       </c>
-      <c r="I29" s="14">
-        <f t="shared" si="3"/>
+      <c r="I29" s="11">
+        <f t="shared" si="4"/>
         <v>-0.39196474795109265</v>
       </c>
-      <c r="J29" s="14">
-        <f t="shared" si="3"/>
+      <c r="J29" s="11">
+        <f t="shared" si="4"/>
         <v>0.30914103871563514</v>
       </c>
-      <c r="K29" s="14">
-        <f t="shared" si="3"/>
+      <c r="K29" s="11">
+        <f t="shared" si="4"/>
         <v>0.14545454545454553</v>
       </c>
-      <c r="L29" s="14">
-        <f t="shared" si="3"/>
+      <c r="L29" s="11">
+        <f t="shared" si="4"/>
         <v>0.33636363636363648</v>
       </c>
-      <c r="M29" s="14">
-        <f t="shared" si="3"/>
+      <c r="M29" s="11">
+        <f t="shared" si="4"/>
         <v>-0.18090680674665818</v>
       </c>
-      <c r="N29" s="14">
-        <f t="shared" si="3"/>
+      <c r="N29" s="11">
+        <f t="shared" si="4"/>
         <v>0.23373674750211432</v>
       </c>
-      <c r="O29" s="14">
-        <f t="shared" si="3"/>
+      <c r="O29" s="11">
+        <f t="shared" si="4"/>
         <v>0.46249729006288048</v>
       </c>
-      <c r="P29" s="14">
-        <f t="shared" si="3"/>
+      <c r="P29" s="11">
+        <f t="shared" si="4"/>
         <v>0.34027852368936051</v>
       </c>
-      <c r="Q29" s="14">
-        <f t="shared" si="3"/>
+      <c r="Q29" s="11">
+        <f t="shared" si="4"/>
         <v>0.4522670168666455</v>
       </c>
-      <c r="R29" s="14">
-        <f t="shared" si="3"/>
+      <c r="R29" s="11">
+        <f t="shared" si="4"/>
         <v>0.46249729006288043</v>
       </c>
-      <c r="S29" s="14">
-        <f t="shared" si="3"/>
+      <c r="S29" s="11">
+        <f t="shared" si="4"/>
         <v>0.21968621277986825</v>
       </c>
-      <c r="T29" s="14">
-        <f t="shared" si="3"/>
+      <c r="T29" s="11">
+        <f t="shared" si="4"/>
         <v>3.7397879600338295E-2</v>
       </c>
-      <c r="U29" s="14">
+      <c r="U29" s="11">
         <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$B$2:$B$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.21320071635561047</v>
       </c>
-      <c r="V29" s="14">
-        <f t="shared" si="3"/>
+      <c r="V29" s="11">
+        <f t="shared" si="4"/>
         <v>0.30934411244487303</v>
       </c>
-      <c r="W29" s="14">
-        <f t="shared" si="3"/>
+      <c r="W29" s="11">
+        <f t="shared" si="4"/>
         <v>0.53300179088902622</v>
       </c>
-      <c r="X29" s="14">
-        <f t="shared" si="3"/>
+      <c r="X29" s="11">
+        <f t="shared" si="4"/>
         <v>0.23636363636363639</v>
       </c>
-      <c r="Y29" s="14">
-        <f t="shared" si="3"/>
+      <c r="Y29" s="11">
+        <f t="shared" si="4"/>
         <v>0.11677484162422846</v>
       </c>
-      <c r="Z29" s="14">
-        <f t="shared" si="3"/>
+      <c r="Z29" s="11">
+        <f t="shared" si="4"/>
         <v>-0.21968621277986811</v>
       </c>
-      <c r="AA29" s="14">
-        <f t="shared" si="3"/>
+      <c r="AA29" s="11">
+        <f t="shared" si="4"/>
         <v>0.66332495807108027</v>
       </c>
-      <c r="AB29" s="14">
-        <f t="shared" si="3"/>
+      <c r="AB29" s="11">
+        <f t="shared" si="4"/>
         <v>0.60032045095482411</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="11">
         <f>_xlfn.LET(_xlpm.a,C$2:C$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
-      <c r="D30" s="14">
-        <f t="shared" ref="D30:AB30" si="4">_xlfn.LET(_xlpm.a,D$2:D$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="D30" s="11">
+        <f t="shared" ref="D30:AB30" si="5">_xlfn.LET(_xlpm.a,D$2:D$22,_xlpm.b,$C$2:$C$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.2581988897471611</v>
       </c>
-      <c r="E30" s="14">
-        <f t="shared" si="4"/>
+      <c r="E30" s="11">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-      <c r="F30" s="14">
-        <f t="shared" si="4"/>
+      <c r="F30" s="11">
+        <f t="shared" si="5"/>
         <v>0.12171612389003679</v>
       </c>
-      <c r="G30" s="14">
-        <f t="shared" si="4"/>
+      <c r="G30" s="11">
+        <f t="shared" si="5"/>
         <v>-0.12171612389003694</v>
       </c>
-      <c r="H30" s="14">
-        <f t="shared" si="4"/>
+      <c r="H30" s="11">
+        <f t="shared" si="5"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="I30" s="14">
-        <f t="shared" si="4"/>
+      <c r="I30" s="11">
+        <f t="shared" si="5"/>
         <v>-0.16666666666666669</v>
       </c>
-      <c r="J30" s="14">
-        <f t="shared" si="4"/>
+      <c r="J30" s="11">
+        <f t="shared" si="5"/>
         <v>0.10606601717798209</v>
       </c>
-      <c r="K30" s="14">
-        <f t="shared" si="4"/>
+      <c r="K30" s="11">
+        <f t="shared" si="5"/>
         <v>0.18090680674665821</v>
       </c>
-      <c r="L30" s="14">
-        <f t="shared" si="4"/>
+      <c r="L30" s="11">
+        <f t="shared" si="5"/>
         <v>0.18090680674665821</v>
       </c>
-      <c r="M30" s="14">
-        <f t="shared" si="4"/>
+      <c r="M30" s="11">
+        <f t="shared" si="5"/>
         <v>6.666666666666661E-2</v>
       </c>
-      <c r="N30" s="14">
-        <f t="shared" si="4"/>
+      <c r="N30" s="11">
+        <f t="shared" si="5"/>
         <v>-6.2017367294604157E-2</v>
       </c>
-      <c r="O30" s="14">
-        <f t="shared" si="4"/>
+      <c r="O30" s="11">
+        <f t="shared" si="5"/>
         <v>0.3067859955389482</v>
       </c>
-      <c r="P30" s="14">
-        <f t="shared" si="4"/>
+      <c r="P30" s="11">
+        <f t="shared" si="5"/>
         <v>-0.20519567041703074</v>
       </c>
-      <c r="Q30" s="14">
-        <f t="shared" si="4"/>
+      <c r="Q30" s="11">
+        <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="R30" s="14">
-        <f t="shared" si="4"/>
+      <c r="R30" s="11">
+        <f t="shared" si="5"/>
         <v>0.30678599553894814</v>
       </c>
-      <c r="S30" s="14">
-        <f t="shared" si="4"/>
+      <c r="S30" s="11">
+        <f t="shared" si="5"/>
         <v>3.834824944236849E-2</v>
       </c>
-      <c r="T30" s="14">
-        <f t="shared" si="4"/>
+      <c r="T30" s="11">
+        <f t="shared" si="5"/>
         <v>-6.2017367294604157E-2</v>
       </c>
-      <c r="U30" s="14">
-        <f t="shared" si="4"/>
+      <c r="U30" s="11">
+        <f t="shared" si="5"/>
         <v>0.1414213562373095</v>
       </c>
-      <c r="V30" s="14">
-        <f t="shared" si="4"/>
+      <c r="V30" s="11">
+        <f t="shared" si="5"/>
         <v>0.2051956704170308</v>
       </c>
-      <c r="W30" s="14">
-        <f t="shared" si="4"/>
+      <c r="W30" s="11">
+        <f t="shared" si="5"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="X30" s="14">
-        <f t="shared" si="4"/>
+      <c r="X30" s="11">
+        <f t="shared" si="5"/>
         <v>3.0151134457776362E-2</v>
       </c>
-      <c r="Y30" s="14">
-        <f t="shared" si="4"/>
+      <c r="Y30" s="11">
+        <f t="shared" si="5"/>
         <v>0.25819888974716104</v>
       </c>
-      <c r="Z30" s="14">
-        <f t="shared" si="4"/>
+      <c r="Z30" s="11">
+        <f t="shared" si="5"/>
         <v>-3.8348249442368497E-2</v>
       </c>
-      <c r="AA30" s="14">
-        <f t="shared" si="4"/>
+      <c r="AA30" s="11">
+        <f t="shared" si="5"/>
         <v>0.53333333333333355</v>
       </c>
-      <c r="AB30" s="14">
-        <f t="shared" si="4"/>
+      <c r="AB30" s="11">
+        <f t="shared" si="5"/>
         <v>0.42216844998499575</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="11">
         <f>_xlfn.LET(_xlpm.a,D$2:D$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="E31" s="14">
-        <f t="shared" ref="E31:AB31" si="5">_xlfn.LET(_xlpm.a,E$2:E$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="E31" s="11">
+        <f t="shared" ref="E31:AB31" si="6">_xlfn.LET(_xlpm.a,E$2:E$22,_xlpm.b,$D$2:$D$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.34426518632954817</v>
       </c>
-      <c r="F31" s="14">
-        <f t="shared" si="5"/>
+      <c r="F31" s="11">
+        <f t="shared" si="6"/>
         <v>0.47140452079103168</v>
       </c>
-      <c r="G31" s="14">
-        <f t="shared" si="5"/>
+      <c r="G31" s="11">
+        <f t="shared" si="6"/>
         <v>-0.47140452079103179</v>
       </c>
-      <c r="H31" s="14">
-        <f t="shared" si="5"/>
+      <c r="H31" s="11">
+        <f t="shared" si="6"/>
         <v>0.41079191812887472</v>
       </c>
-      <c r="I31" s="14">
-        <f t="shared" si="5"/>
+      <c r="I31" s="11">
+        <f t="shared" si="6"/>
         <v>-0.6454972243679028</v>
       </c>
-      <c r="J31" s="14">
-        <f t="shared" si="5"/>
+      <c r="J31" s="11">
+        <f t="shared" si="6"/>
         <v>0.41079191812887472</v>
       </c>
-      <c r="K31" s="14">
-        <f t="shared" si="5"/>
+      <c r="K31" s="11">
+        <f t="shared" si="6"/>
         <v>0.15569978883230465</v>
       </c>
-      <c r="L31" s="14">
-        <f t="shared" si="5"/>
+      <c r="L31" s="11">
+        <f t="shared" si="6"/>
         <v>0.42817441928883782</v>
       </c>
-      <c r="M31" s="14">
-        <f t="shared" si="5"/>
+      <c r="M31" s="11">
+        <f t="shared" si="6"/>
         <v>-4.3033148291193583E-2</v>
       </c>
-      <c r="N31" s="14">
-        <f t="shared" si="5"/>
+      <c r="N31" s="11">
+        <f t="shared" si="6"/>
         <v>0.32025630761017432</v>
       </c>
-      <c r="O31" s="14">
-        <f t="shared" si="5"/>
+      <c r="O31" s="11">
+        <f t="shared" si="6"/>
         <v>0.49507377148833731</v>
       </c>
-      <c r="P31" s="14">
-        <f t="shared" si="5"/>
+      <c r="P31" s="11">
+        <f t="shared" si="6"/>
         <v>0.13245323570650439</v>
       </c>
-      <c r="Q31" s="14">
-        <f t="shared" si="5"/>
+      <c r="Q31" s="11">
+        <f t="shared" si="6"/>
         <v>0.2581988897471611</v>
       </c>
-      <c r="R31" s="14">
-        <f t="shared" si="5"/>
+      <c r="R31" s="11">
+        <f t="shared" si="6"/>
         <v>0.49507377148833731</v>
       </c>
-      <c r="S31" s="14">
-        <f t="shared" si="5"/>
+      <c r="S31" s="11">
+        <f t="shared" si="6"/>
         <v>0.49507377148833731</v>
       </c>
-      <c r="T31" s="14">
-        <f t="shared" si="5"/>
+      <c r="T31" s="11">
+        <f t="shared" si="6"/>
         <v>0.32025630761017432</v>
       </c>
-      <c r="U31" s="14">
-        <f t="shared" si="5"/>
+      <c r="U31" s="11">
+        <f t="shared" si="6"/>
         <v>-9.1287092917527735E-2</v>
       </c>
-      <c r="V31" s="14">
-        <f t="shared" si="5"/>
+      <c r="V31" s="11">
+        <f t="shared" si="6"/>
         <v>-0.13245323570650433</v>
       </c>
-      <c r="W31" s="14">
-        <f t="shared" si="5"/>
+      <c r="W31" s="11">
+        <f t="shared" si="6"/>
         <v>0.41079191812887472</v>
       </c>
-      <c r="X31" s="14">
-        <f t="shared" si="5"/>
+      <c r="X31" s="11">
+        <f t="shared" si="6"/>
         <v>0.3892494720807616</v>
       </c>
-      <c r="Y31" s="14">
-        <f t="shared" si="5"/>
+      <c r="Y31" s="11">
+        <f t="shared" si="6"/>
         <v>-0.16666666666666669</v>
       </c>
-      <c r="Z31" s="14">
-        <f t="shared" si="5"/>
+      <c r="Z31" s="11">
+        <f t="shared" si="6"/>
         <v>0.19802950859533486</v>
       </c>
-      <c r="AA31" s="14">
-        <f t="shared" si="5"/>
+      <c r="AA31" s="11">
+        <f t="shared" si="6"/>
         <v>0.2581988897471611</v>
       </c>
-      <c r="AB31" s="14">
-        <f t="shared" si="5"/>
+      <c r="AB31" s="11">
+        <f t="shared" si="6"/>
         <v>0.50082654762997281</v>
       </c>
     </row>
-    <row r="32" spans="1:31" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="11">
         <f>_xlfn.LET(_xlpm.a,E$2:E$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F32" s="14">
-        <f t="shared" ref="F32:AB32" si="6">_xlfn.LET(_xlpm.a,F$2:F$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="F32" s="11">
+        <f t="shared" ref="F32:AB32" si="7">_xlfn.LET(_xlpm.a,F$2:F$22,_xlpm.b,$E$2:$E$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.73029674334022132</v>
       </c>
-      <c r="G32" s="14">
-        <f t="shared" si="6"/>
+      <c r="G32" s="11">
+        <f t="shared" si="7"/>
         <v>-9.1287092917527651E-2</v>
       </c>
-      <c r="H32" s="14">
-        <f t="shared" si="6"/>
+      <c r="H32" s="11">
+        <f t="shared" si="7"/>
         <v>0.88388347648318411</v>
       </c>
-      <c r="I32" s="14">
-        <f t="shared" si="6"/>
+      <c r="I32" s="11">
+        <f t="shared" si="7"/>
         <v>-0.53333333333333321</v>
       </c>
-      <c r="J32" s="14">
-        <f t="shared" si="6"/>
+      <c r="J32" s="11">
+        <f t="shared" si="7"/>
         <v>0.63639610306789263</v>
       </c>
-      <c r="K32" s="14">
-        <f t="shared" si="6"/>
+      <c r="K32" s="11">
+        <f t="shared" si="7"/>
         <v>0.66332495807108016</v>
       </c>
-      <c r="L32" s="14">
-        <f t="shared" si="6"/>
+      <c r="L32" s="11">
+        <f t="shared" si="7"/>
         <v>0.66332495807108016</v>
       </c>
-      <c r="M32" s="14">
-        <f t="shared" si="6"/>
+      <c r="M32" s="11">
+        <f t="shared" si="7"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="N32" s="14">
-        <f t="shared" si="6"/>
+      <c r="N32" s="11">
+        <f t="shared" si="7"/>
         <v>0.27907815282571902</v>
       </c>
-      <c r="O32" s="14">
-        <f t="shared" si="6"/>
+      <c r="O32" s="11">
+        <f t="shared" si="7"/>
         <v>0.76696498884737041</v>
       </c>
-      <c r="P32" s="14">
-        <f t="shared" si="6"/>
+      <c r="P32" s="11">
+        <f t="shared" si="7"/>
         <v>0.20519567041703077</v>
       </c>
-      <c r="Q32" s="14">
-        <f t="shared" si="6"/>
+      <c r="Q32" s="11">
+        <f t="shared" si="7"/>
         <v>0.16666666666666669</v>
       </c>
-      <c r="R32" s="14">
-        <f t="shared" si="6"/>
+      <c r="R32" s="11">
+        <f t="shared" si="7"/>
         <v>0.7669649888473703</v>
       </c>
-      <c r="S32" s="14">
-        <f t="shared" si="6"/>
+      <c r="S32" s="11">
+        <f t="shared" si="7"/>
         <v>0.49852724275079069</v>
       </c>
-      <c r="T32" s="14">
-        <f t="shared" si="6"/>
+      <c r="T32" s="11">
+        <f t="shared" si="7"/>
         <v>0.27907815282571902</v>
       </c>
-      <c r="U32" s="14">
-        <f t="shared" si="6"/>
+      <c r="U32" s="11">
+        <f t="shared" si="7"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="V32" s="14">
-        <f t="shared" si="6"/>
+      <c r="V32" s="11">
+        <f t="shared" si="7"/>
         <v>0.51298917604257699</v>
       </c>
-      <c r="W32" s="14">
-        <f t="shared" si="6"/>
+      <c r="W32" s="11">
+        <f t="shared" si="7"/>
         <v>0.88388347648318411</v>
       </c>
-      <c r="X32" s="14">
-        <f t="shared" si="6"/>
+      <c r="X32" s="11">
+        <f t="shared" si="7"/>
         <v>0.39196474795109265</v>
       </c>
-      <c r="Y32" s="14">
-        <f t="shared" si="6"/>
+      <c r="Y32" s="11">
+        <f t="shared" si="7"/>
         <v>0.34426518632954817</v>
       </c>
-      <c r="Z32" s="14">
-        <f t="shared" si="6"/>
+      <c r="Z32" s="11">
+        <f t="shared" si="7"/>
         <v>-0.23008949665421116</v>
       </c>
-      <c r="AA32" s="14">
-        <f t="shared" si="6"/>
+      <c r="AA32" s="11">
+        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-      <c r="AB32" s="14">
-        <f t="shared" si="6"/>
+      <c r="AB32" s="11">
+        <f t="shared" si="7"/>
         <v>0.91564913814313287</v>
       </c>
     </row>
-    <row r="33" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="11">
         <f>_xlfn.LET(_xlpm.a,F$2:F$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
-      <c r="G33" s="14">
-        <f t="shared" ref="G33:AB33" si="7">_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="G33" s="11">
+        <f t="shared" ref="G33:AB33" si="8">_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$F$2:$F$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.22222222222222221</v>
       </c>
-      <c r="H33" s="14">
-        <f t="shared" si="7"/>
+      <c r="H33" s="11">
+        <f t="shared" si="8"/>
         <v>0.6454972243679028</v>
       </c>
-      <c r="I33" s="14">
-        <f t="shared" si="7"/>
+      <c r="I33" s="11">
+        <f t="shared" si="8"/>
         <v>-0.73029674334022132</v>
       </c>
-      <c r="J33" s="14">
-        <f t="shared" si="7"/>
+      <c r="J33" s="11">
+        <f t="shared" si="8"/>
         <v>0.6454972243679028</v>
       </c>
-      <c r="K33" s="14">
-        <f t="shared" si="7"/>
+      <c r="K33" s="11">
+        <f t="shared" si="8"/>
         <v>0.71562644733213443</v>
       </c>
-      <c r="L33" s="14">
-        <f t="shared" si="7"/>
+      <c r="L33" s="11">
+        <f t="shared" si="8"/>
         <v>0.9082951062292477</v>
       </c>
-      <c r="M33" s="14">
-        <f t="shared" si="7"/>
+      <c r="M33" s="11">
+        <f t="shared" si="8"/>
         <v>0.3347193406976014</v>
       </c>
-      <c r="N33" s="14">
-        <f t="shared" si="7"/>
+      <c r="N33" s="11">
+        <f t="shared" si="8"/>
         <v>0.48121773951145319</v>
       </c>
-      <c r="O33" s="14">
-        <f t="shared" si="7"/>
+      <c r="O33" s="11">
+        <f t="shared" si="8"/>
         <v>0.56011203361120399</v>
       </c>
-      <c r="P33" s="14">
-        <f t="shared" si="7"/>
+      <c r="P33" s="11">
+        <f t="shared" si="8"/>
         <v>0.2809757434745081</v>
       </c>
-      <c r="Q33" s="14">
-        <f t="shared" si="7"/>
+      <c r="Q33" s="11">
+        <f t="shared" si="8"/>
         <v>0.12171612389003685</v>
       </c>
-      <c r="R33" s="14">
-        <f t="shared" si="7"/>
+      <c r="R33" s="11">
+        <f t="shared" si="8"/>
         <v>0.56011203361120387</v>
       </c>
-      <c r="S33" s="14">
-        <f t="shared" si="7"/>
+      <c r="S33" s="11">
+        <f t="shared" si="8"/>
         <v>0.56011203361120387</v>
       </c>
-      <c r="T33" s="14">
-        <f t="shared" si="7"/>
+      <c r="T33" s="11">
+        <f t="shared" si="8"/>
         <v>0.4812177395114533</v>
       </c>
-      <c r="U33" s="14">
-        <f t="shared" si="7"/>
+      <c r="U33" s="11">
+        <f t="shared" si="8"/>
         <v>0.2581988897471611</v>
       </c>
-      <c r="V33" s="14">
-        <f t="shared" si="7"/>
+      <c r="V33" s="11">
+        <f t="shared" si="8"/>
         <v>0.37463432463267754</v>
       </c>
-      <c r="W33" s="14">
-        <f t="shared" si="7"/>
+      <c r="W33" s="11">
+        <f t="shared" si="8"/>
         <v>0.6454972243679028</v>
       </c>
-      <c r="X33" s="14">
-        <f t="shared" si="7"/>
+      <c r="X33" s="11">
+        <f t="shared" si="8"/>
         <v>0.44038550605054416</v>
       </c>
-      <c r="Y33" s="14">
-        <f t="shared" si="7"/>
+      <c r="Y33" s="11">
+        <f t="shared" si="8"/>
         <v>0.19641855032959649</v>
       </c>
-      <c r="Z33" s="14">
-        <f t="shared" si="7"/>
+      <c r="Z33" s="11">
+        <f t="shared" si="8"/>
         <v>-0.31506301890630217</v>
       </c>
-      <c r="AA33" s="14">
-        <f t="shared" si="7"/>
+      <c r="AA33" s="11">
+        <f t="shared" si="8"/>
         <v>0.3347193406976014</v>
       </c>
-      <c r="AB33" s="14">
-        <f t="shared" si="7"/>
+      <c r="AB33" s="11">
+        <f t="shared" si="8"/>
         <v>0.82545366047563351</v>
       </c>
     </row>
-    <row r="34" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="11">
         <f>_xlfn.LET(_xlpm.a,G$2:G$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="H34" s="14">
-        <f t="shared" ref="H34:AB34" si="8">_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="H34" s="11">
+        <f t="shared" ref="H34:AB34" si="9">_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$G$2:$G$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.19364916731037088</v>
       </c>
-      <c r="I34" s="14">
-        <f t="shared" si="8"/>
+      <c r="I34" s="11">
+        <f t="shared" si="9"/>
         <v>0.51729352653265692</v>
       </c>
-      <c r="J34" s="14">
-        <f t="shared" si="8"/>
+      <c r="J34" s="11">
+        <f t="shared" si="9"/>
         <v>-0.41957319583913694</v>
       </c>
-      <c r="K34" s="14">
-        <f t="shared" si="8"/>
+      <c r="K34" s="11">
+        <f t="shared" si="9"/>
         <v>5.5048188256318062E-2</v>
       </c>
-      <c r="L34" s="14">
-        <f t="shared" si="8"/>
+      <c r="L34" s="11">
+        <f t="shared" si="9"/>
         <v>-0.13762047064079511</v>
       </c>
-      <c r="M34" s="14">
-        <f t="shared" si="8"/>
+      <c r="M34" s="11">
+        <f t="shared" si="9"/>
         <v>0.51729352653265681</v>
       </c>
-      <c r="N34" s="14">
-        <f t="shared" si="8"/>
+      <c r="N34" s="11">
+        <f t="shared" si="9"/>
         <v>-0.48121773951145319</v>
       </c>
-      <c r="O34" s="14">
-        <f t="shared" si="8"/>
+      <c r="O34" s="11">
+        <f t="shared" si="9"/>
         <v>-0.31506301890630223</v>
       </c>
-      <c r="P34" s="14">
-        <f t="shared" si="8"/>
+      <c r="P34" s="11">
+        <f t="shared" si="9"/>
         <v>-0.2809757434745081</v>
       </c>
-      <c r="Q34" s="14">
-        <f t="shared" si="8"/>
+      <c r="Q34" s="11">
+        <f t="shared" si="9"/>
         <v>-0.33471934069760156</v>
       </c>
-      <c r="R34" s="14">
-        <f t="shared" si="8"/>
+      <c r="R34" s="11">
+        <f t="shared" si="9"/>
         <v>-7.0014004201400498E-2</v>
       </c>
-      <c r="S34" s="14">
-        <f t="shared" si="8"/>
+      <c r="S34" s="11">
+        <f t="shared" si="9"/>
         <v>-7.001400420140047E-2</v>
       </c>
-      <c r="T34" s="14">
-        <f t="shared" si="8"/>
+      <c r="T34" s="11">
+        <f t="shared" si="9"/>
         <v>-0.28306925853614906</v>
       </c>
-      <c r="U34" s="14">
-        <f t="shared" si="8"/>
+      <c r="U34" s="11">
+        <f t="shared" si="9"/>
         <v>0.19364916731037085</v>
       </c>
-      <c r="V34" s="14">
-        <f t="shared" si="8"/>
+      <c r="V34" s="11">
+        <f t="shared" si="9"/>
         <v>0.28097574347450816</v>
       </c>
-      <c r="W34" s="14">
-        <f t="shared" si="8"/>
+      <c r="W34" s="11">
+        <f t="shared" si="9"/>
         <v>3.2274861218395144E-2</v>
       </c>
-      <c r="X34" s="14">
-        <f t="shared" si="8"/>
+      <c r="X34" s="11">
+        <f t="shared" si="9"/>
         <v>-0.2477168471534312</v>
       </c>
-      <c r="Y34" s="14">
-        <f t="shared" si="8"/>
+      <c r="Y34" s="11">
+        <f t="shared" si="9"/>
         <v>0.35355339059327373</v>
       </c>
-      <c r="Z34" s="14">
-        <f t="shared" si="8"/>
+      <c r="Z34" s="11">
+        <f t="shared" si="9"/>
         <v>-0.17503501050350123</v>
       </c>
-      <c r="AA34" s="14">
-        <f t="shared" si="8"/>
+      <c r="AA34" s="11">
+        <f t="shared" si="9"/>
         <v>-0.33471934069760156</v>
       </c>
-      <c r="AB34" s="14">
-        <f t="shared" si="8"/>
+      <c r="AB34" s="11">
+        <f t="shared" si="9"/>
         <v>-0.15102937636462699</v>
       </c>
     </row>
-    <row r="35" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" s="14">
+    <row r="35" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" s="11">
         <f>_xlfn.LET(_xlpm.a,H$2:H$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I35" s="14">
-        <f t="shared" ref="I35:AB35" si="9">_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="I35" s="11">
+        <f t="shared" ref="I35:AB35" si="10">_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.63639610306789285</v>
       </c>
-      <c r="J35" s="14">
-        <f t="shared" si="9"/>
+      <c r="J35" s="11">
+        <f t="shared" si="10"/>
         <v>0.73749999999999982</v>
       </c>
-      <c r="K35" s="14">
-        <f t="shared" si="9"/>
+      <c r="K35" s="11">
+        <f t="shared" si="10"/>
         <v>0.58630196997792872</v>
       </c>
-      <c r="L35" s="14">
-        <f t="shared" si="9"/>
+      <c r="L35" s="11">
+        <f t="shared" si="10"/>
         <v>0.58630196997792872</v>
       </c>
-      <c r="M35" s="14">
-        <f t="shared" si="9"/>
+      <c r="M35" s="11">
+        <f t="shared" si="10"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="N35" s="14">
-        <f t="shared" si="9"/>
+      <c r="N35" s="11">
+        <f t="shared" si="10"/>
         <v>0.43852900965351466</v>
       </c>
-      <c r="O35" s="14">
-        <f t="shared" si="9"/>
+      <c r="O35" s="11">
+        <f t="shared" si="10"/>
         <v>0.86772183127462488</v>
       </c>
-      <c r="P35" s="14">
-        <f t="shared" si="9"/>
+      <c r="P35" s="11">
+        <f t="shared" si="10"/>
         <v>0.1813690625275029</v>
       </c>
-      <c r="Q35" s="14">
-        <f t="shared" si="9"/>
+      <c r="Q35" s="11">
+        <f t="shared" si="10"/>
         <v>0.10606601717798214</v>
       </c>
-      <c r="R35" s="14">
-        <f t="shared" si="9"/>
+      <c r="R35" s="11">
+        <f t="shared" si="10"/>
         <v>0.86772183127462477</v>
       </c>
-      <c r="S35" s="14">
-        <f t="shared" si="9"/>
+      <c r="S35" s="11">
+        <f t="shared" si="10"/>
         <v>0.58300060538763854</v>
       </c>
-      <c r="T35" s="14">
-        <f t="shared" si="9"/>
+      <c r="T35" s="11">
+        <f t="shared" si="10"/>
         <v>0.43852900965351466</v>
       </c>
-      <c r="U35" s="14">
-        <f t="shared" si="9"/>
+      <c r="U35" s="11">
+        <f t="shared" si="10"/>
         <v>0.4</v>
       </c>
-      <c r="V35" s="14">
-        <f t="shared" si="9"/>
+      <c r="V35" s="11">
+        <f t="shared" si="10"/>
         <v>0.19950596878025317</v>
       </c>
-      <c r="W35" s="14">
-        <f t="shared" si="9"/>
+      <c r="W35" s="11">
+        <f t="shared" si="10"/>
         <v>0.73749999999999982</v>
       </c>
-      <c r="X35" s="14">
-        <f t="shared" si="9"/>
+      <c r="X35" s="11">
+        <f t="shared" si="10"/>
         <v>0.53300179088902622</v>
       </c>
-      <c r="Y35" s="14">
-        <f t="shared" si="9"/>
+      <c r="Y35" s="11">
+        <f t="shared" si="10"/>
         <v>9.1287092917527748E-2</v>
       </c>
-      <c r="Z35" s="14">
-        <f t="shared" si="9"/>
+      <c r="Z35" s="11">
+        <f t="shared" si="10"/>
         <v>-1.3558153613666041E-2</v>
       </c>
-      <c r="AA35" s="14">
-        <f t="shared" si="9"/>
+      <c r="AA35" s="11">
+        <f t="shared" si="10"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AB35" s="14">
-        <f t="shared" si="9"/>
+      <c r="AB35" s="11">
+        <f t="shared" si="10"/>
         <v>0.89757153604996576</v>
       </c>
     </row>
-    <row r="36" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="11">
         <f>_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="J36" s="14">
-        <f t="shared" ref="J36:AB36" si="10">_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="J36" s="11">
+        <f t="shared" ref="J36:AB36" si="11">_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.88388347648318422</v>
       </c>
-      <c r="K36" s="14">
-        <f t="shared" si="10"/>
+      <c r="K36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.45226701686664539</v>
       </c>
-      <c r="L36" s="14">
-        <f t="shared" si="10"/>
+      <c r="L36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.66332495807108005</v>
       </c>
-      <c r="M36" s="14">
-        <f t="shared" si="10"/>
+      <c r="M36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.16666666666666666</v>
       </c>
-      <c r="N36" s="14">
-        <f t="shared" si="10"/>
+      <c r="N36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.4961389383568337</v>
       </c>
-      <c r="O36" s="14">
-        <f t="shared" si="10"/>
+      <c r="O36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.76696498884737041</v>
       </c>
-      <c r="P36" s="14">
-        <f t="shared" si="10"/>
+      <c r="P36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.20519567041703082</v>
       </c>
-      <c r="Q36" s="14">
-        <f t="shared" si="10"/>
+      <c r="Q36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.4</v>
       </c>
-      <c r="R36" s="14">
-        <f t="shared" si="10"/>
+      <c r="R36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.49852724275079069</v>
       </c>
-      <c r="S36" s="14">
-        <f t="shared" si="10"/>
+      <c r="S36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.23008949665421108</v>
       </c>
-      <c r="T36" s="14">
-        <f t="shared" si="10"/>
+      <c r="T36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.4961389383568337</v>
       </c>
-      <c r="U36" s="14">
-        <f t="shared" si="10"/>
+      <c r="U36" s="11">
+        <f t="shared" si="11"/>
         <v>0.1414213562373095</v>
       </c>
-      <c r="V36" s="14">
-        <f t="shared" si="10"/>
+      <c r="V36" s="11">
+        <f t="shared" si="11"/>
         <v>0.2051956704170308</v>
       </c>
-      <c r="W36" s="14">
-        <f t="shared" si="10"/>
+      <c r="W36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.38890872965260109</v>
       </c>
-      <c r="X36" s="14">
-        <f t="shared" si="10"/>
+      <c r="X36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.39196474795109265</v>
       </c>
-      <c r="Y36" s="14">
-        <f t="shared" si="10"/>
+      <c r="Y36" s="11">
+        <f t="shared" si="11"/>
         <v>0.25819888974716104</v>
       </c>
-      <c r="Z36" s="14">
-        <f t="shared" si="10"/>
+      <c r="Z36" s="11">
+        <f t="shared" si="11"/>
         <v>0.23008949665421108</v>
       </c>
-      <c r="AA36" s="14">
-        <f t="shared" si="10"/>
+      <c r="AA36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.4</v>
       </c>
-      <c r="AB36" s="14">
-        <f t="shared" si="10"/>
+      <c r="AB36" s="11">
+        <f t="shared" si="11"/>
         <v>-0.61613773781593995</v>
       </c>
     </row>
-    <row r="37" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J37" s="14">
+    <row r="37" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="11">
         <f>_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="K37" s="14">
-        <f t="shared" ref="K37:AB37" si="11">_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="K37" s="11">
+        <f t="shared" ref="K37:AB37" si="12">_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$J$2:$J$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.58630196997792872</v>
       </c>
-      <c r="L37" s="14">
-        <f t="shared" si="11"/>
+      <c r="L37" s="11">
+        <f t="shared" si="12"/>
         <v>0.58630196997792872</v>
       </c>
-      <c r="M37" s="14">
-        <f t="shared" si="11"/>
+      <c r="M37" s="11">
+        <f t="shared" si="12"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="N37" s="14">
-        <f t="shared" si="11"/>
+      <c r="N37" s="11">
+        <f t="shared" si="12"/>
         <v>0.43852900965351471</v>
       </c>
-      <c r="O37" s="14">
-        <f t="shared" si="11"/>
+      <c r="O37" s="11">
+        <f t="shared" si="12"/>
         <v>0.86772183127462488</v>
       </c>
-      <c r="P37" s="14">
-        <f t="shared" si="11"/>
+      <c r="P37" s="11">
+        <f t="shared" si="12"/>
         <v>0.1813690625275029</v>
       </c>
-      <c r="Q37" s="14">
-        <f t="shared" si="11"/>
+      <c r="Q37" s="11">
+        <f t="shared" si="12"/>
         <v>0.35355339059327373</v>
       </c>
-      <c r="R37" s="14">
-        <f t="shared" si="11"/>
+      <c r="R37" s="11">
+        <f t="shared" si="12"/>
         <v>0.58300060538763854</v>
       </c>
-      <c r="S37" s="14">
-        <f t="shared" si="11"/>
+      <c r="S37" s="11">
+        <f t="shared" si="12"/>
         <v>0.2982793795006522</v>
       </c>
-      <c r="T37" s="14">
-        <f t="shared" si="11"/>
+      <c r="T37" s="11">
+        <f t="shared" si="12"/>
         <v>0.43852900965351471</v>
       </c>
-      <c r="U37" s="14">
-        <f t="shared" si="11"/>
+      <c r="U37" s="11">
+        <f t="shared" si="12"/>
         <v>-0.125</v>
       </c>
-      <c r="V37" s="14">
-        <f t="shared" si="11"/>
+      <c r="V37" s="11">
+        <f t="shared" si="12"/>
         <v>-0.18136906252750287</v>
       </c>
-      <c r="W37" s="14">
-        <f t="shared" si="11"/>
+      <c r="W37" s="11">
+        <f t="shared" si="12"/>
         <v>0.47499999999999987</v>
       </c>
-      <c r="X37" s="14">
-        <f t="shared" si="11"/>
+      <c r="X37" s="11">
+        <f t="shared" si="12"/>
         <v>0.30914103871563514</v>
       </c>
-      <c r="Y37" s="14">
-        <f t="shared" si="11"/>
+      <c r="Y37" s="11">
+        <f t="shared" si="12"/>
         <v>-0.22821773229381925</v>
       </c>
-      <c r="Z37" s="14">
-        <f t="shared" si="11"/>
+      <c r="Z37" s="11">
+        <f t="shared" si="12"/>
         <v>-0.29827937950065231</v>
       </c>
-      <c r="AA37" s="14">
-        <f t="shared" si="11"/>
+      <c r="AA37" s="11">
+        <f t="shared" si="12"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AB37" s="14">
-        <f t="shared" si="11"/>
+      <c r="AB37" s="11">
+        <f t="shared" si="12"/>
         <v>0.64342768539312167</v>
       </c>
     </row>
-    <row r="38" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="11">
         <f>_xlfn.LET(_xlpm.a,K$2:K$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="L38" s="14">
-        <f t="shared" ref="L38:AB38" si="12">_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="L38" s="11">
+        <f t="shared" ref="L38:AB38" si="13">_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$K$2:$K$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.80909090909090908</v>
       </c>
-      <c r="M38" s="14">
-        <f t="shared" si="12"/>
+      <c r="M38" s="11">
+        <f t="shared" si="13"/>
         <v>0.60302268915552737</v>
       </c>
-      <c r="N38" s="14">
-        <f t="shared" si="12"/>
+      <c r="N38" s="11">
+        <f t="shared" si="13"/>
         <v>0.15894098830143777</v>
       </c>
-      <c r="O38" s="14">
-        <f t="shared" si="12"/>
+      <c r="O38" s="11">
+        <f t="shared" si="13"/>
         <v>0.50874701906916853</v>
       </c>
-      <c r="P38" s="14">
-        <f t="shared" si="12"/>
+      <c r="P38" s="11">
+        <f t="shared" si="13"/>
         <v>-0.34027852368936051</v>
       </c>
-      <c r="Q38" s="14">
-        <f t="shared" si="12"/>
+      <c r="Q38" s="11">
+        <f t="shared" si="13"/>
         <v>-0.24120907566221092</v>
       </c>
-      <c r="R38" s="14">
-        <f t="shared" si="12"/>
+      <c r="R38" s="11">
+        <f t="shared" si="13"/>
         <v>0.50874701906916853</v>
       </c>
-      <c r="S38" s="14">
-        <f t="shared" si="12"/>
+      <c r="S38" s="11">
+        <f t="shared" si="13"/>
         <v>0.50874701906916853</v>
       </c>
-      <c r="T38" s="14">
-        <f t="shared" si="12"/>
+      <c r="T38" s="11">
+        <f t="shared" si="13"/>
         <v>0.35527985620321378</v>
       </c>
-      <c r="U38" s="14">
-        <f t="shared" si="12"/>
+      <c r="U38" s="11">
+        <f t="shared" si="13"/>
         <v>0.23452078799117154</v>
       </c>
-      <c r="V38" s="14">
-        <f t="shared" si="12"/>
+      <c r="V38" s="11">
+        <f t="shared" si="13"/>
         <v>0.34027852368936046</v>
       </c>
-      <c r="W38" s="14">
-        <f t="shared" si="12"/>
+      <c r="W38" s="11">
+        <f t="shared" si="13"/>
         <v>0.58630196997792872</v>
       </c>
-      <c r="X38" s="14">
-        <f t="shared" si="12"/>
+      <c r="X38" s="11">
+        <f t="shared" si="13"/>
         <v>0.33636363636363648</v>
       </c>
-      <c r="Y38" s="14">
-        <f t="shared" si="12"/>
+      <c r="Y38" s="11">
+        <f t="shared" si="13"/>
         <v>0.15569978883230465</v>
       </c>
-      <c r="Z38" s="14">
-        <f t="shared" si="12"/>
+      <c r="Z38" s="11">
+        <f t="shared" si="13"/>
         <v>-0.26593594178615626</v>
       </c>
-      <c r="AA38" s="14">
-        <f t="shared" si="12"/>
+      <c r="AA38" s="11">
+        <f t="shared" si="13"/>
         <v>-3.0151134457776414E-2</v>
       </c>
-      <c r="AB38" s="14">
-        <f t="shared" si="12"/>
+      <c r="AB38" s="11">
+        <f t="shared" si="13"/>
         <v>0.6639647394514675</v>
       </c>
     </row>
-    <row r="39" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="11">
         <f>_xlfn.LET(_xlpm.a,L$2:L$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="M39" s="14">
-        <f t="shared" ref="M39:AB39" si="13">_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="M39" s="11">
+        <f t="shared" ref="M39:AB39" si="14">_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$L$2:$L$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.39196474795109271</v>
       </c>
-      <c r="N39" s="14">
-        <f t="shared" si="13"/>
+      <c r="N39" s="11">
+        <f t="shared" si="14"/>
         <v>0.3552798562032139</v>
       </c>
-      <c r="O39" s="14">
-        <f t="shared" si="13"/>
+      <c r="O39" s="11">
+        <f t="shared" si="14"/>
         <v>0.50874701906916853</v>
       </c>
-      <c r="P39" s="14">
-        <f t="shared" si="13"/>
+      <c r="P39" s="11">
+        <f t="shared" si="14"/>
         <v>-1.5467205622243664E-2</v>
       </c>
-      <c r="Q39" s="14">
-        <f t="shared" si="13"/>
+      <c r="Q39" s="11">
+        <f t="shared" si="14"/>
         <v>-3.0151134457776355E-2</v>
       </c>
-      <c r="R39" s="14">
-        <f t="shared" si="13"/>
+      <c r="R39" s="11">
+        <f t="shared" si="14"/>
         <v>0.50874701906916853</v>
       </c>
-      <c r="S39" s="14">
-        <f t="shared" si="13"/>
+      <c r="S39" s="11">
+        <f t="shared" si="14"/>
         <v>0.50874701906916853</v>
       </c>
-      <c r="T39" s="14">
-        <f t="shared" si="13"/>
+      <c r="T39" s="11">
+        <f t="shared" si="14"/>
         <v>0.5516187241049898</v>
       </c>
-      <c r="U39" s="14">
-        <f t="shared" si="13"/>
+      <c r="U39" s="11">
+        <f t="shared" si="14"/>
         <v>0.23452078799117154</v>
       </c>
-      <c r="V39" s="14">
-        <f t="shared" si="13"/>
+      <c r="V39" s="11">
+        <f t="shared" si="14"/>
         <v>0.34027852368936046</v>
       </c>
-      <c r="W39" s="14">
-        <f t="shared" si="13"/>
+      <c r="W39" s="11">
+        <f t="shared" si="14"/>
         <v>0.58630196997792872</v>
       </c>
-      <c r="X39" s="14">
-        <f t="shared" si="13"/>
+      <c r="X39" s="11">
+        <f t="shared" si="14"/>
         <v>0.52727272727272745</v>
       </c>
-      <c r="Y39" s="14">
-        <f t="shared" si="13"/>
+      <c r="Y39" s="11">
+        <f t="shared" si="14"/>
         <v>0.15569978883230465</v>
       </c>
-      <c r="Z39" s="14">
-        <f t="shared" si="13"/>
+      <c r="Z39" s="11">
+        <f t="shared" si="14"/>
         <v>-0.26593594178615626</v>
       </c>
-      <c r="AA39" s="14">
-        <f t="shared" si="13"/>
+      <c r="AA39" s="11">
+        <f t="shared" si="14"/>
         <v>0.18090680674665824</v>
       </c>
-      <c r="AB39" s="14">
-        <f t="shared" si="13"/>
+      <c r="AB39" s="11">
+        <f t="shared" si="14"/>
         <v>0.77233204148629253</v>
       </c>
     </row>
-    <row r="40" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="13" t="s">
+    <row r="40" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="11">
         <f>_xlfn.LET(_xlpm.a,M$2:M$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
-      <c r="N40" s="14">
-        <f t="shared" ref="N40:AB40" si="14">_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="N40" s="11">
+        <f t="shared" ref="N40:AB40" si="15">_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$M$2:$M$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.27907815282571913</v>
       </c>
-      <c r="O40" s="14">
-        <f t="shared" si="14"/>
+      <c r="O40" s="11">
+        <f t="shared" si="15"/>
         <v>0.3067859955389482</v>
       </c>
-      <c r="P40" s="14">
-        <f t="shared" si="14"/>
+      <c r="P40" s="11">
+        <f t="shared" si="15"/>
         <v>-0.20519567041703077</v>
       </c>
-      <c r="Q40" s="14">
-        <f t="shared" si="14"/>
+      <c r="Q40" s="11">
+        <f t="shared" si="15"/>
         <v>-0.16666666666666669</v>
       </c>
-      <c r="R40" s="14">
-        <f t="shared" si="14"/>
+      <c r="R40" s="11">
+        <f t="shared" si="15"/>
         <v>0.30678599553894814</v>
       </c>
-      <c r="S40" s="14">
-        <f t="shared" si="14"/>
+      <c r="S40" s="11">
+        <f t="shared" si="15"/>
         <v>0.30678599553894814</v>
       </c>
-      <c r="T40" s="14">
-        <f t="shared" si="14"/>
+      <c r="T40" s="11">
+        <f t="shared" si="15"/>
         <v>0.15504341823651066</v>
       </c>
-      <c r="U40" s="14">
-        <f t="shared" si="14"/>
+      <c r="U40" s="11">
+        <f t="shared" si="15"/>
         <v>0.1414213562373095</v>
       </c>
-      <c r="V40" s="14">
-        <f t="shared" si="14"/>
+      <c r="V40" s="11">
+        <f t="shared" si="15"/>
         <v>0.20519567041703082</v>
       </c>
-      <c r="W40" s="14">
-        <f t="shared" si="14"/>
+      <c r="W40" s="11">
+        <f t="shared" si="15"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="X40" s="14">
-        <f t="shared" si="14"/>
+      <c r="X40" s="11">
+        <f t="shared" si="15"/>
         <v>3.0151134457776341E-2</v>
       </c>
-      <c r="Y40" s="14">
-        <f t="shared" si="14"/>
+      <c r="Y40" s="11">
+        <f t="shared" si="15"/>
         <v>0.25819888974716104</v>
       </c>
-      <c r="Z40" s="14">
-        <f t="shared" si="14"/>
+      <c r="Z40" s="11">
+        <f t="shared" si="15"/>
         <v>-0.30678599553894803</v>
       </c>
-      <c r="AA40" s="14">
-        <f t="shared" si="14"/>
+      <c r="AA40" s="11">
+        <f t="shared" si="15"/>
         <v>-0.16666666666666663</v>
       </c>
-      <c r="AB40" s="14">
-        <f t="shared" si="14"/>
+      <c r="AB40" s="11">
+        <f t="shared" si="15"/>
         <v>0.38223359660803669</v>
       </c>
     </row>
-    <row r="41" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="N41" s="14">
+    <row r="41" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="11">
         <f>_xlfn.LET(_xlpm.a,N$2:N$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="O41" s="14">
-        <f t="shared" ref="O41:AB41" si="15">_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="O41" s="11">
+        <f t="shared" ref="O41:AB41" si="16">_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.38052119532359541</v>
       </c>
-      <c r="P41" s="14">
-        <f t="shared" si="15"/>
+      <c r="P41" s="11">
+        <f t="shared" si="16"/>
         <v>0.41358509593425546</v>
       </c>
-      <c r="Q41" s="14">
-        <f t="shared" si="15"/>
+      <c r="Q41" s="11">
+        <f t="shared" si="16"/>
         <v>0.15504341823651069</v>
       </c>
-      <c r="R41" s="14">
-        <f t="shared" si="15"/>
+      <c r="R41" s="11">
+        <f t="shared" si="16"/>
         <v>0.38052119532359535</v>
       </c>
-      <c r="S41" s="14">
-        <f t="shared" si="15"/>
+      <c r="S41" s="11">
+        <f t="shared" si="16"/>
         <v>0.38052119532359541</v>
       </c>
-      <c r="T41" s="14">
-        <f t="shared" si="15"/>
+      <c r="T41" s="11">
+        <f t="shared" si="16"/>
         <v>0.39423076923076916</v>
       </c>
-      <c r="U41" s="14">
-        <f t="shared" si="15"/>
+      <c r="U41" s="11">
+        <f t="shared" si="16"/>
         <v>0.17541160386140589</v>
       </c>
-      <c r="V41" s="14">
-        <f t="shared" si="15"/>
+      <c r="V41" s="11">
+        <f t="shared" si="16"/>
         <v>-7.9535595371972176E-2</v>
       </c>
-      <c r="W41" s="14">
-        <f t="shared" si="15"/>
+      <c r="W41" s="11">
+        <f t="shared" si="16"/>
         <v>0.20830127958541941</v>
       </c>
-      <c r="X41" s="14">
-        <f t="shared" si="15"/>
+      <c r="X41" s="11">
+        <f t="shared" si="16"/>
         <v>0.23373674750211437</v>
       </c>
-      <c r="Y41" s="14">
-        <f t="shared" si="15"/>
+      <c r="Y41" s="11">
+        <f t="shared" si="16"/>
         <v>4.0032038451271783E-2</v>
       </c>
-      <c r="Z41" s="14">
-        <f t="shared" si="15"/>
+      <c r="Z41" s="11">
+        <f t="shared" si="16"/>
         <v>0.11891287353862354</v>
       </c>
-      <c r="AA41" s="14">
-        <f t="shared" si="15"/>
+      <c r="AA41" s="11">
+        <f t="shared" si="16"/>
         <v>0.37210420376762521</v>
       </c>
-      <c r="AB41" s="14">
-        <f t="shared" si="15"/>
+      <c r="AB41" s="11">
+        <f t="shared" si="16"/>
         <v>0.4493358823662138</v>
       </c>
     </row>
-    <row r="42" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="O42" s="14">
+    <row r="42" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" s="11">
         <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="P42" s="14">
-        <f t="shared" ref="P42:AB42" si="16">_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="P42" s="11">
+        <f t="shared" ref="P42:AB42" si="17">_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.15737789507292682</v>
       </c>
-      <c r="Q42" s="14">
-        <f t="shared" si="16"/>
+      <c r="Q42" s="11">
+        <f t="shared" si="17"/>
         <v>0.3067859955389482</v>
       </c>
-      <c r="R42" s="14">
-        <f t="shared" si="16"/>
+      <c r="R42" s="11">
+        <f t="shared" si="17"/>
         <v>0.69117647058823528</v>
       </c>
-      <c r="S42" s="14">
-        <f t="shared" si="16"/>
+      <c r="S42" s="11">
+        <f t="shared" si="17"/>
         <v>0.38235294117647056</v>
       </c>
-      <c r="T42" s="14">
-        <f t="shared" si="16"/>
+      <c r="T42" s="11">
+        <f t="shared" si="17"/>
         <v>0.38052119532359546</v>
       </c>
-      <c r="U42" s="14">
-        <f t="shared" si="16"/>
+      <c r="U42" s="11">
+        <f t="shared" si="17"/>
         <v>-0.10846522890932811</v>
       </c>
-      <c r="V42" s="14">
-        <f t="shared" si="16"/>
+      <c r="V42" s="11">
+        <f t="shared" si="17"/>
         <v>-0.15737789507292679</v>
       </c>
-      <c r="W42" s="14">
-        <f t="shared" si="16"/>
+      <c r="W42" s="11">
+        <f t="shared" si="17"/>
         <v>0.58300060538763865</v>
       </c>
-      <c r="X42" s="14">
-        <f t="shared" si="16"/>
+      <c r="X42" s="11">
+        <f t="shared" si="17"/>
         <v>0.46249729006288048</v>
       </c>
-      <c r="Y42" s="14">
-        <f t="shared" si="16"/>
+      <c r="Y42" s="11">
+        <f t="shared" si="17"/>
         <v>-0.19802950859533489</v>
       </c>
-      <c r="Z42" s="14">
-        <f t="shared" si="16"/>
+      <c r="Z42" s="11">
+        <f t="shared" si="17"/>
         <v>-7.3529411764705843E-2</v>
       </c>
-      <c r="AA42" s="14">
-        <f t="shared" si="16"/>
+      <c r="AA42" s="11">
+        <f t="shared" si="17"/>
         <v>0.3067859955389482</v>
       </c>
-      <c r="AB42" s="14">
-        <f t="shared" si="16"/>
+      <c r="AB42" s="11">
+        <f t="shared" si="17"/>
         <v>0.73289946539893325</v>
       </c>
     </row>
-    <row r="43" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="P43" s="14">
+    <row r="43" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" s="11">
         <f>_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="Q43" s="14">
-        <f t="shared" ref="Q43:AB43" si="17">_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="Q43" s="11">
+        <f t="shared" ref="Q43:AB43" si="18">_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.5129891760425771</v>
       </c>
-      <c r="R43" s="14">
-        <f t="shared" si="17"/>
+      <c r="R43" s="11">
+        <f t="shared" si="18"/>
         <v>0.15737789507292679</v>
       </c>
-      <c r="S43" s="14">
-        <f t="shared" si="17"/>
+      <c r="S43" s="11">
+        <f t="shared" si="18"/>
         <v>0.15737789507292682</v>
       </c>
-      <c r="T43" s="14">
-        <f t="shared" si="17"/>
+      <c r="T43" s="11">
+        <f t="shared" si="18"/>
         <v>7.9535595371972134E-2</v>
       </c>
-      <c r="U43" s="14">
-        <f t="shared" si="17"/>
+      <c r="U43" s="11">
+        <f t="shared" si="18"/>
         <v>7.2547625011001191E-2</v>
       </c>
-      <c r="V43" s="14">
-        <f t="shared" si="17"/>
+      <c r="V43" s="11">
+        <f t="shared" si="18"/>
         <v>0.10526315789473686</v>
       </c>
-      <c r="W43" s="14">
-        <f t="shared" si="17"/>
+      <c r="W43" s="11">
+        <f t="shared" si="18"/>
         <v>0.1813690625275029</v>
       </c>
-      <c r="X43" s="14">
-        <f t="shared" si="17"/>
+      <c r="X43" s="11">
+        <f t="shared" si="18"/>
         <v>1.5467205622243661E-2</v>
       </c>
-      <c r="Y43" s="14">
-        <f t="shared" si="17"/>
+      <c r="Y43" s="11">
+        <f t="shared" si="18"/>
         <v>0.13245323570650439</v>
       </c>
-      <c r="Z43" s="14">
-        <f t="shared" si="17"/>
+      <c r="Z43" s="11">
+        <f t="shared" si="18"/>
         <v>-0.15737789507292679</v>
       </c>
-      <c r="AA43" s="14">
-        <f t="shared" si="17"/>
+      <c r="AA43" s="11">
+        <f t="shared" si="18"/>
         <v>0.51298917604257721</v>
       </c>
-      <c r="AB43" s="14">
-        <f t="shared" si="17"/>
+      <c r="AB43" s="11">
+        <f t="shared" si="18"/>
         <v>0.24729706660281603</v>
       </c>
     </row>
-    <row r="44" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q44" s="14">
+      <c r="Q44" s="11">
         <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
-      <c r="R44" s="14">
-        <f t="shared" ref="R44:AB44" si="18">_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="R44" s="11">
+        <f t="shared" ref="R44:AB44" si="19">_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>3.8348249442368504E-2</v>
       </c>
-      <c r="S44" s="14">
-        <f t="shared" si="18"/>
+      <c r="S44" s="11">
+        <f t="shared" si="19"/>
         <v>-0.23008949665421108</v>
       </c>
-      <c r="T44" s="14">
-        <f t="shared" si="18"/>
+      <c r="T44" s="11">
+        <f t="shared" si="19"/>
         <v>-0.27907815282571913</v>
       </c>
-      <c r="U44" s="14">
-        <f t="shared" si="18"/>
+      <c r="U44" s="11">
+        <f t="shared" si="19"/>
         <v>-0.35355339059327379</v>
       </c>
-      <c r="V44" s="14">
-        <f t="shared" si="18"/>
+      <c r="V44" s="11">
+        <f t="shared" si="19"/>
         <v>-0.15389675281277312</v>
       </c>
-      <c r="W44" s="14">
-        <f t="shared" si="18"/>
+      <c r="W44" s="11">
+        <f t="shared" si="19"/>
         <v>0.10606601717798214</v>
       </c>
-      <c r="X44" s="14">
-        <f t="shared" si="18"/>
+      <c r="X44" s="11">
+        <f t="shared" si="19"/>
         <v>-0.39196474795109271</v>
       </c>
-      <c r="Y44" s="14">
-        <f t="shared" si="18"/>
+      <c r="Y44" s="11">
+        <f t="shared" si="19"/>
         <v>-4.3033148291193549E-2</v>
       </c>
-      <c r="Z44" s="14">
-        <f t="shared" si="18"/>
+      <c r="Z44" s="11">
+        <f t="shared" si="19"/>
         <v>-0.30678599553894803</v>
       </c>
-      <c r="AA44" s="14">
-        <f t="shared" si="18"/>
+      <c r="AA44" s="11">
+        <f t="shared" si="19"/>
         <v>0.76666666666666672</v>
       </c>
-      <c r="AB44" s="14">
-        <f t="shared" si="18"/>
+      <c r="AB44" s="11">
+        <f t="shared" si="19"/>
         <v>0.14262447634628236</v>
       </c>
     </row>
-    <row r="45" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="13" t="s">
+    <row r="45" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R45" s="14">
+      <c r="R45" s="11">
         <f>_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
-      <c r="S45" s="14">
-        <f t="shared" ref="S45:AB45" si="19">_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="S45" s="11">
+        <f t="shared" ref="S45:AB45" si="20">_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$R$2:$R$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.69117647058823517</v>
       </c>
-      <c r="T45" s="14">
-        <f t="shared" si="19"/>
+      <c r="T45" s="11">
+        <f t="shared" si="20"/>
         <v>0.38052119532359541</v>
       </c>
-      <c r="U45" s="14">
-        <f t="shared" si="19"/>
-        <v>0.46097722286464438</v>
-      </c>
-      <c r="V45" s="14">
-        <f t="shared" si="19"/>
-        <v>0.25573907949350594</v>
-      </c>
-      <c r="W45" s="14">
-        <f t="shared" si="19"/>
-        <v>0.86772183127462477</v>
-      </c>
-      <c r="X45" s="14">
-        <f t="shared" si="19"/>
-        <v>0.46249729006288043</v>
-      </c>
-      <c r="Y45" s="14">
-        <f t="shared" si="19"/>
-        <v>0.1485221314465012</v>
-      </c>
-      <c r="Z45" s="14">
-        <f t="shared" si="19"/>
-        <v>-7.3529411764705829E-2</v>
-      </c>
-      <c r="AA45" s="14">
-        <f t="shared" si="19"/>
-        <v>0.30678599553894814</v>
-      </c>
-      <c r="AB45" s="14">
-        <f t="shared" si="19"/>
-        <v>0.84775684430473619</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="S46" s="14">
-        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
-      </c>
-      <c r="T46" s="14">
-        <f t="shared" ref="T46:AB46" si="20">_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.38052119532359546</v>
-      </c>
-      <c r="U46" s="14">
+      <c r="U45" s="11">
         <f t="shared" si="20"/>
         <v>0.46097722286464438</v>
       </c>
-      <c r="V46" s="14">
+      <c r="V45" s="11">
         <f t="shared" si="20"/>
         <v>0.25573907949350594</v>
       </c>
-      <c r="W46" s="14">
+      <c r="W45" s="11">
         <f t="shared" si="20"/>
-        <v>0.58300060538763854</v>
-      </c>
-      <c r="X46" s="14">
+        <v>0.86772183127462477</v>
+      </c>
+      <c r="X45" s="11">
         <f t="shared" si="20"/>
-        <v>0.46249729006288037</v>
-      </c>
-      <c r="Y46" s="14">
+        <v>0.46249729006288043</v>
+      </c>
+      <c r="Y45" s="11">
         <f t="shared" si="20"/>
         <v>0.1485221314465012</v>
       </c>
-      <c r="Z46" s="14">
+      <c r="Z45" s="11">
         <f t="shared" si="20"/>
+        <v>-7.3529411764705829E-2</v>
+      </c>
+      <c r="AA45" s="11">
+        <f t="shared" si="20"/>
+        <v>0.30678599553894814</v>
+      </c>
+      <c r="AB45" s="11">
+        <f t="shared" si="20"/>
+        <v>0.84775684430473619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46" s="11">
+        <f>_xlfn.LET(_xlpm.a,S$2:S$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>1</v>
+      </c>
+      <c r="T46" s="11">
+        <f t="shared" ref="T46:AB46" si="21">_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$S$2:$S$22,CORREL(_xlpm.a,_xlpm.b))</f>
+        <v>0.38052119532359546</v>
+      </c>
+      <c r="U46" s="11">
+        <f t="shared" si="21"/>
+        <v>0.46097722286464438</v>
+      </c>
+      <c r="V46" s="11">
+        <f t="shared" si="21"/>
+        <v>0.25573907949350594</v>
+      </c>
+      <c r="W46" s="11">
+        <f t="shared" si="21"/>
+        <v>0.58300060538763854</v>
+      </c>
+      <c r="X46" s="11">
+        <f t="shared" si="21"/>
+        <v>0.46249729006288037</v>
+      </c>
+      <c r="Y46" s="11">
+        <f t="shared" si="21"/>
+        <v>0.1485221314465012</v>
+      </c>
+      <c r="Z46" s="11">
+        <f t="shared" si="21"/>
         <v>0.23529411764705879</v>
       </c>
-      <c r="AA46" s="14">
-        <f t="shared" si="20"/>
+      <c r="AA46" s="11">
+        <f t="shared" si="21"/>
         <v>3.834824944236849E-2</v>
       </c>
-      <c r="AB46" s="14">
-        <f t="shared" si="20"/>
+      <c r="AB46" s="11">
+        <f t="shared" si="21"/>
         <v>0.68695651383661194</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="13" t="s">
+    <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="T47" s="14">
+      <c r="T47" s="11">
         <f>_xlfn.LET(_xlpm.a,T$2:T$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="U47" s="14">
-        <f t="shared" ref="U47:AB47" si="21">_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="U47" s="11">
+        <f t="shared" ref="U47:AB47" si="22">_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$T$2:$T$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.17541160386140589</v>
       </c>
-      <c r="V47" s="14">
-        <f t="shared" si="21"/>
+      <c r="V47" s="11">
+        <f t="shared" si="22"/>
         <v>-7.9535595371972148E-2</v>
       </c>
-      <c r="W47" s="14">
-        <f t="shared" si="21"/>
+      <c r="W47" s="11">
+        <f t="shared" si="22"/>
         <v>0.20830127958541941</v>
       </c>
-      <c r="X47" s="14">
-        <f t="shared" si="21"/>
+      <c r="X47" s="11">
+        <f t="shared" si="22"/>
         <v>0.82275335120744264</v>
       </c>
-      <c r="Y47" s="14">
-        <f t="shared" si="21"/>
+      <c r="Y47" s="11">
+        <f t="shared" si="22"/>
         <v>4.0032038451271783E-2</v>
       </c>
-      <c r="Z47" s="14">
-        <f t="shared" si="21"/>
+      <c r="Z47" s="11">
+        <f t="shared" si="22"/>
         <v>0.11891287353862354</v>
       </c>
-      <c r="AA47" s="14">
-        <f t="shared" si="21"/>
+      <c r="AA47" s="11">
+        <f t="shared" si="22"/>
         <v>-6.2017367294604157E-2</v>
       </c>
-      <c r="AB47" s="14">
-        <f t="shared" si="21"/>
+      <c r="AB47" s="11">
+        <f t="shared" si="22"/>
         <v>0.48648569941223929</v>
       </c>
     </row>
-    <row r="48" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="13" t="s">
+    <row r="48" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="U48" s="14">
+      <c r="U48" s="11">
         <f>_xlfn.LET(_xlpm.a,U$2:U$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
-      <c r="V48" s="14">
-        <f t="shared" ref="V48:AB48" si="22">_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="V48" s="11">
+        <f t="shared" ref="V48:AB48" si="23">_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$U$2:$U$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.68920243760451094</v>
       </c>
-      <c r="W48" s="14">
-        <f t="shared" si="22"/>
+      <c r="W48" s="11">
+        <f t="shared" si="23"/>
         <v>0.4</v>
       </c>
-      <c r="X48" s="14">
-        <f t="shared" si="22"/>
+      <c r="X48" s="11">
+        <f t="shared" si="23"/>
         <v>0.21320071635561047</v>
       </c>
-      <c r="Y48" s="14">
-        <f t="shared" si="22"/>
+      <c r="Y48" s="11">
+        <f t="shared" si="23"/>
         <v>0.54772255750516619</v>
       </c>
-      <c r="Z48" s="14">
-        <f t="shared" si="22"/>
+      <c r="Z48" s="11">
+        <f t="shared" si="23"/>
         <v>0.10846522890932808</v>
       </c>
-      <c r="AA48" s="14">
-        <f t="shared" si="22"/>
+      <c r="AA48" s="11">
+        <f t="shared" si="23"/>
         <v>0.1414213562373095</v>
       </c>
-      <c r="AB48" s="14">
-        <f t="shared" si="22"/>
+      <c r="AB48" s="11">
+        <f t="shared" si="23"/>
         <v>0.44374323130560117</v>
       </c>
     </row>
-    <row r="49" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
+    <row r="49" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V49" s="11">
         <f>_xlfn.LET(_xlpm.a,V$2:V$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
-      <c r="W49" s="14">
-        <f t="shared" ref="W49:AB49" si="23">_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="W49" s="11">
+        <f t="shared" ref="W49:AB49" si="24">_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$V$2:$V$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.5803810000880093</v>
       </c>
-      <c r="X49" s="14">
-        <f t="shared" si="23"/>
+      <c r="X49" s="11">
+        <f t="shared" si="24"/>
         <v>-1.5467205622243669E-2</v>
       </c>
-      <c r="Y49" s="14">
-        <f t="shared" si="23"/>
+      <c r="Y49" s="11">
+        <f t="shared" si="24"/>
         <v>0.79471941423902637</v>
       </c>
-      <c r="Z49" s="14">
-        <f t="shared" si="23"/>
+      <c r="Z49" s="11">
+        <f t="shared" si="24"/>
         <v>-0.25573907949350588</v>
       </c>
-      <c r="AA49" s="14">
-        <f t="shared" si="23"/>
+      <c r="AA49" s="11">
+        <f t="shared" si="24"/>
         <v>0.2051956704170308</v>
       </c>
-      <c r="AB49" s="14">
-        <f t="shared" si="23"/>
+      <c r="AB49" s="11">
+        <f t="shared" si="24"/>
         <v>0.42874580186168681</v>
       </c>
     </row>
-    <row r="50" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
+    <row r="50" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="W50" s="14">
+      <c r="W50" s="11">
         <f>_xlfn.LET(_xlpm.a,W$2:W$22,_xlpm.b,$W$2:$W$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="X50" s="14">
-        <f t="shared" ref="X50:AB50" si="24">_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$W$2:$W$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="X50" s="11">
+        <f t="shared" ref="X50:AB50" si="25">_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$W$2:$W$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.30914103871563514</v>
       </c>
-      <c r="Y50" s="14">
-        <f t="shared" si="24"/>
+      <c r="Y50" s="11">
+        <f t="shared" si="25"/>
         <v>0.41079191812887478</v>
       </c>
-      <c r="Z50" s="14">
-        <f t="shared" si="24"/>
+      <c r="Z50" s="11">
+        <f t="shared" si="25"/>
         <v>-0.29827937950065231</v>
       </c>
-      <c r="AA50" s="14">
-        <f t="shared" si="24"/>
+      <c r="AA50" s="11">
+        <f t="shared" si="25"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="AB50" s="14">
-        <f t="shared" si="24"/>
+      <c r="AB50" s="11">
+        <f t="shared" si="25"/>
         <v>0.85521422760715848</v>
       </c>
     </row>
-    <row r="51" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13" t="s">
+    <row r="51" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="X51" s="14">
+      <c r="X51" s="11">
         <f>_xlfn.LET(_xlpm.a,X$2:X$22,_xlpm.b,$X$2:$X$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="Y51" s="14">
-        <f t="shared" ref="Y51:AB51" si="25">_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$X$2:$X$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="Y51" s="11">
+        <f t="shared" ref="Y51:AB51" si="26">_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$X$2:$X$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.15569978883230468</v>
       </c>
-      <c r="Z51" s="14">
-        <f t="shared" si="25"/>
+      <c r="Z51" s="11">
+        <f t="shared" si="26"/>
         <v>0.2659359417861562</v>
       </c>
-      <c r="AA51" s="14">
-        <f t="shared" si="25"/>
+      <c r="AA51" s="11">
+        <f t="shared" si="26"/>
         <v>-0.18090680674665818</v>
       </c>
-      <c r="AB51" s="14">
-        <f t="shared" si="25"/>
+      <c r="AB51" s="11">
+        <f t="shared" si="26"/>
         <v>0.51001436592580329</v>
       </c>
     </row>
-    <row r="52" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y52" s="14">
+    <row r="52" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y52" s="11">
         <f>_xlfn.LET(_xlpm.a,Y$2:Y$22,_xlpm.b,$Y$2:$Y$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="Z52" s="14">
-        <f t="shared" ref="Z52:AB52" si="26">_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$Y$2:$Y$22,CORREL(_xlpm.a,_xlpm.b))</f>
+      <c r="Z52" s="11">
+        <f t="shared" ref="Z52:AB52" si="27">_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$Y$2:$Y$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.1485221314465012</v>
       </c>
-      <c r="AA52" s="14">
-        <f t="shared" si="26"/>
+      <c r="AA52" s="11">
+        <f t="shared" si="27"/>
         <v>0.25819888974716104</v>
       </c>
-      <c r="AB52" s="14">
-        <f t="shared" si="26"/>
+      <c r="AB52" s="11">
+        <f t="shared" si="27"/>
         <v>0.34615952556777546</v>
       </c>
     </row>
-    <row r="53" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="13" t="s">
+    <row r="53" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Z53" s="14">
+      <c r="Z53" s="11">
         <f>_xlfn.LET(_xlpm.a,Z$2:Z$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="AA53" s="14">
+      <c r="AA53" s="11">
         <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.30678599553894809</v>
       </c>
-      <c r="AB53" s="14">
+      <c r="AB53" s="11">
         <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>-0.1356410950887578</v>
       </c>
     </row>
-    <row r="54" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA54" s="14">
+    <row r="54" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA54" s="11">
         <f>_xlfn.LET(_xlpm.a,AA$2:AA$22,_xlpm.b,$AA$2:$AA$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1</v>
       </c>
-      <c r="AB54" s="14">
+      <c r="AB54" s="11">
         <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$AA$2:$AA$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>0.46210330336195488</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A55" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="13"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
-      <c r="S55" s="13"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="13"/>
-      <c r="Y55" s="14"/>
-      <c r="Z55" s="14"/>
-      <c r="AA55" s="14"/>
-      <c r="AB55" s="14">
+      <c r="A55" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="Y55" s="11"/>
+      <c r="Z55" s="11"/>
+      <c r="AA55" s="11"/>
+      <c r="AB55" s="11">
         <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$AB$2:$AB$22,CORREL(_xlpm.a,_xlpm.b))</f>
         <v>1.0000000000000002</v>
       </c>
@@ -7049,8 +7016,20 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B2:P22 R2:AA22">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="&quot;&quot;">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="&quot;&quot;">
       <formula>NOT(ISERROR(SEARCH("""""",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:AA25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
+        <color theme="3" tint="0.59999389629810485"/>
+        <color theme="0"/>
+        <color rgb="FFFFC000"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:AB55">
@@ -7059,18 +7038,6 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="3" tint="0.59999389629810485"/>
-        <color theme="0"/>
-        <color rgb="FFFFC000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:AA25">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="num" val="1"/>
         <color theme="3" tint="0.59999389629810485"/>
         <color theme="0"/>
         <color rgb="FFFFC000"/>

--- a/fc-typology-data-generator-rev1.xlsx
+++ b/fc-typology-data-generator-rev1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/FCA-grammar-typology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17117104-0694-AD4E-BC91-369CA91E8CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F79508-E534-874A-8B8C-44B507552B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="500" windowWidth="35320" windowHeight="20800" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27820" windowHeight="17500" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="typology.data26" sheetId="1" r:id="rId1"/>
@@ -3073,11 +3073,11 @@
   <dimension ref="A1:AE55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="9700" ySplit="3540" topLeftCell="R36" activePane="bottomRight"/>
+      <pane xSplit="9700" ySplit="3540" topLeftCell="O18" activePane="bottomRight"/>
       <selection sqref="A1:AA22"/>
       <selection pane="topRight" activeCell="AJ3" sqref="AJ3"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="AB33" sqref="AB33"/>
+      <selection pane="bottomRight" activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="19" x14ac:dyDescent="0.35"/>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="8">
         <v>0</v>
@@ -5027,7 +5027,7 @@
       </c>
       <c r="AB22" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE22" s="1"/>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="1"/>
@@ -5141,7 +5141,7 @@
       </c>
       <c r="AB24" s="1">
         <f>SUM(AB2:AB22)</f>
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="20" x14ac:dyDescent="0.35">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="3"/>
-        <v>0.2857142857142857</v>
+        <v>0.23809523809523808</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" si="3"/>
@@ -5254,7 +5254,7 @@
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="3"/>
-        <v>14.476190476190476</v>
+        <v>14.428571428571429</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="60" x14ac:dyDescent="0.35">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="Q29" s="11">
         <f t="shared" si="4"/>
-        <v>0.4522670168666455</v>
+        <v>0.58630196997792883</v>
       </c>
       <c r="R29" s="11">
         <f t="shared" si="4"/>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="AB29" s="11">
         <f t="shared" si="4"/>
-        <v>0.60032045095482411</v>
+        <v>0.59783566858378046</v>
       </c>
     </row>
     <row r="30" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="Q30" s="11">
         <f t="shared" si="5"/>
-        <v>0.3</v>
+        <v>0.3889087296526012</v>
       </c>
       <c r="R30" s="11">
         <f t="shared" si="5"/>
@@ -5562,7 +5562,7 @@
       </c>
       <c r="AB30" s="11">
         <f t="shared" si="5"/>
-        <v>0.42216844998499575</v>
+        <v>0.42008402520840299</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="Q31" s="11">
         <f t="shared" si="6"/>
-        <v>0.2581988897471611</v>
+        <v>0.22821773229381925</v>
       </c>
       <c r="R31" s="11">
         <f t="shared" si="6"/>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="AB31" s="11">
         <f t="shared" si="6"/>
-        <v>0.50082654762997281</v>
+        <v>0.48809353009197631</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5724,7 +5724,7 @@
       </c>
       <c r="Q32" s="11">
         <f t="shared" si="7"/>
-        <v>0.16666666666666669</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="R32" s="11">
         <f t="shared" si="7"/>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="AB32" s="11">
         <f t="shared" si="7"/>
-        <v>0.91564913814313287</v>
+        <v>0.91298261478626197</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="Q33" s="11">
         <f t="shared" si="8"/>
-        <v>0.12171612389003685</v>
+        <v>0.2581988897471611</v>
       </c>
       <c r="R33" s="11">
         <f t="shared" si="8"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="AB33" s="11">
         <f t="shared" si="8"/>
-        <v>0.82545366047563351</v>
+        <v>0.82065253806668614</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="Q34" s="11">
         <f t="shared" si="9"/>
-        <v>-0.33471934069760156</v>
+        <v>-0.25819888974716115</v>
       </c>
       <c r="R34" s="11">
         <f t="shared" si="9"/>
@@ -5958,7 +5958,7 @@
       </c>
       <c r="AB34" s="11">
         <f t="shared" si="9"/>
-        <v>-0.15102937636462699</v>
+        <v>-0.14061024795535124</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="Q35" s="11">
         <f t="shared" si="10"/>
-        <v>0.10606601717798214</v>
+        <v>0.3125</v>
       </c>
       <c r="R35" s="11">
         <f t="shared" si="10"/>
@@ -6047,7 +6047,7 @@
       </c>
       <c r="AB35" s="11">
         <f t="shared" si="10"/>
-        <v>0.89757153604996576</v>
+        <v>0.89707367393686677</v>
       </c>
     </row>
     <row r="36" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="Q36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.4</v>
+        <v>-0.35355339059327379</v>
       </c>
       <c r="R36" s="11">
         <f t="shared" si="11"/>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="AB36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.61613773781593995</v>
+        <v>-0.59931987596398806</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="Q37" s="11">
         <f t="shared" si="12"/>
-        <v>0.35355339059327373</v>
+        <v>0.3125</v>
       </c>
       <c r="R37" s="11">
         <f t="shared" si="12"/>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="AB37" s="11">
         <f t="shared" si="12"/>
-        <v>0.64342768539312167</v>
+        <v>0.6267633947042347</v>
       </c>
     </row>
     <row r="38" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="Q38" s="11">
         <f t="shared" si="13"/>
-        <v>-0.24120907566221092</v>
+        <v>-0.13858046563114682</v>
       </c>
       <c r="R38" s="11">
         <f t="shared" si="13"/>
@@ -6290,7 +6290,7 @@
       </c>
       <c r="AB38" s="11">
         <f t="shared" si="13"/>
-        <v>0.6639647394514675</v>
+        <v>0.66116571822189329</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6319,7 +6319,7 @@
       </c>
       <c r="Q39" s="11">
         <f t="shared" si="14"/>
-        <v>-3.0151134457776355E-2</v>
+        <v>8.5280286542244205E-2</v>
       </c>
       <c r="R39" s="11">
         <f t="shared" si="14"/>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="AB39" s="11">
         <f t="shared" si="14"/>
-        <v>0.77233204148629253</v>
+        <v>0.76756020161392191</v>
       </c>
     </row>
     <row r="40" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6388,7 +6388,7 @@
       </c>
       <c r="Q40" s="11">
         <f t="shared" si="15"/>
-        <v>-0.16666666666666669</v>
+        <v>-0.1060660171779822</v>
       </c>
       <c r="R40" s="11">
         <f t="shared" si="15"/>
@@ -6432,7 +6432,7 @@
       </c>
       <c r="AB40" s="11">
         <f t="shared" si="15"/>
-        <v>0.38223359660803669</v>
+        <v>0.38087618285561858</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="Q41" s="11">
         <f t="shared" si="16"/>
-        <v>0.15504341823651069</v>
+        <v>0.25215418055077105</v>
       </c>
       <c r="R41" s="11">
         <f t="shared" si="16"/>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="AB41" s="11">
         <f t="shared" si="16"/>
-        <v>0.4493358823662138</v>
+        <v>0.44810309091825928</v>
       </c>
     </row>
     <row r="42" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6514,7 +6514,7 @@
       </c>
       <c r="Q42" s="11">
         <f t="shared" si="17"/>
-        <v>0.3067859955389482</v>
+        <v>0.27116307227332026</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" si="17"/>
@@ -6558,7 +6558,7 @@
       </c>
       <c r="AB42" s="11">
         <f t="shared" si="17"/>
-        <v>0.73289946539893325</v>
+        <v>0.71526122215380517</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="Q43" s="11">
         <f t="shared" ref="Q43:AB43" si="18">_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.5129891760425771</v>
+        <v>0.58038100008800908</v>
       </c>
       <c r="R43" s="11">
         <f t="shared" si="18"/>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="AB43" s="11">
         <f t="shared" si="18"/>
-        <v>0.24729706660281603</v>
+        <v>0.2456683560747509</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6624,51 +6624,51 @@
       </c>
       <c r="Q44" s="11">
         <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="R44" s="11">
         <f t="shared" ref="R44:AB44" si="19">_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>3.8348249442368504E-2</v>
+        <v>0.2711630722733202</v>
       </c>
       <c r="S44" s="11">
         <f t="shared" si="19"/>
-        <v>-0.23008949665421108</v>
+        <v>-1.3558153613666012E-2</v>
       </c>
       <c r="T44" s="11">
         <f t="shared" si="19"/>
-        <v>-0.27907815282571913</v>
+        <v>-0.20830127958541941</v>
       </c>
       <c r="U44" s="11">
         <f t="shared" si="19"/>
-        <v>-0.35355339059327379</v>
+        <v>0.12499999999999999</v>
       </c>
       <c r="V44" s="11">
         <f t="shared" si="19"/>
-        <v>-0.15389675281277312</v>
+        <v>0.18136906252750284</v>
       </c>
       <c r="W44" s="11">
         <f t="shared" si="19"/>
-        <v>0.10606601717798214</v>
+        <v>0.3125</v>
       </c>
       <c r="X44" s="11">
         <f t="shared" si="19"/>
-        <v>-0.39196474795109271</v>
+        <v>-0.30914103871563514</v>
       </c>
       <c r="Y44" s="11">
         <f t="shared" si="19"/>
-        <v>-4.3033148291193549E-2</v>
+        <v>0.22821773229381925</v>
       </c>
       <c r="Z44" s="11">
         <f t="shared" si="19"/>
-        <v>-0.30678599553894803</v>
+        <v>-0.2711630722733202</v>
       </c>
       <c r="AA44" s="11">
         <f t="shared" si="19"/>
-        <v>0.76666666666666672</v>
+        <v>0.88388347648318466</v>
       </c>
       <c r="AB44" s="11">
         <f t="shared" si="19"/>
-        <v>0.14262447634628236</v>
+        <v>0.37130532861625276</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="AB45" s="11">
         <f t="shared" si="20"/>
-        <v>0.84775684430473619</v>
+        <v>0.85058091283155213</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6762,7 +6762,7 @@
       </c>
       <c r="AB46" s="11">
         <f t="shared" si="21"/>
-        <v>0.68695651383661194</v>
+        <v>0.69270794037418071</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6803,7 +6803,7 @@
       </c>
       <c r="AB47" s="11">
         <f t="shared" si="22"/>
-        <v>0.48648569941223929</v>
+        <v>0.48457659831858263</v>
       </c>
     </row>
     <row r="48" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="AB48" s="11">
         <f t="shared" si="23"/>
-        <v>0.44374323130560117</v>
+        <v>0.4752708206288036</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="AB49" s="11">
         <f t="shared" si="24"/>
-        <v>0.42874580186168681</v>
+        <v>0.44823700055744015</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="AB50" s="11">
         <f t="shared" si="25"/>
-        <v>0.85521422760715848</v>
+        <v>0.85548747713184647</v>
       </c>
     </row>
     <row r="51" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6927,7 +6927,7 @@
       </c>
       <c r="AB51" s="11">
         <f t="shared" si="26"/>
-        <v>0.51001436592580329</v>
+        <v>0.50917359909042326</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6948,7 +6948,7 @@
       </c>
       <c r="AB52" s="11">
         <f t="shared" si="27"/>
-        <v>0.34615952556777546</v>
+        <v>0.36155076303109368</v>
       </c>
     </row>
     <row r="53" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="AB53" s="11">
         <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.1356410950887578</v>
+        <v>-0.12887589588356849</v>
       </c>
     </row>
     <row r="54" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6978,7 +6978,7 @@
       </c>
       <c r="AB54" s="11">
         <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$AA$2:$AA$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.46210330336195488</v>
+        <v>0.45929186756118717</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">
@@ -7010,7 +7010,7 @@
       <c r="AA55" s="11"/>
       <c r="AB55" s="11">
         <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$AB$2:$AB$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/fc-typology-data-generator-rev1.xlsx
+++ b/fc-typology-data-generator-rev1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/FCA-grammar-typology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F79508-E534-874A-8B8C-44B507552B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D44202-A0B9-A24F-B42B-7AB221255215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27820" windowHeight="17500" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,6 +40,7 @@
     <author>Kow KURODA</author>
     <author>Kow Kuroda</author>
     <author>tc={346B38C6-799F-2047-94DE-E3C24A151880}</author>
+    <author>Kuroda, Kow</author>
   </authors>
   <commentList>
     <comment ref="AA3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -179,6 +180,39 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Only locative</t>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="3" shapeId="0" xr:uid="{8BBD5C53-257C-2C49-AC3F-9D2AEA6946D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Kuroda, Kow:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>locative only</t>
+        </r>
       </text>
     </comment>
     <comment ref="AA12" authorId="1" shapeId="0" xr:uid="{8DFC6AD9-6937-604B-BC05-9F6C550C5853}">
@@ -3073,11 +3107,11 @@
   <dimension ref="A1:AE55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="9700" ySplit="3540" topLeftCell="O18" activePane="bottomRight"/>
+      <pane xSplit="9700" ySplit="3540" topLeftCell="F18" activePane="bottomRight"/>
       <selection sqref="A1:AA22"/>
       <selection pane="topRight" activeCell="AJ3" sqref="AJ3"/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="U22" sqref="U22"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="19" x14ac:dyDescent="0.35"/>
@@ -3913,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="5">
         <v>1</v>
@@ -3971,7 +4005,7 @@
       </c>
       <c r="AB10" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE10" s="1"/>
     </row>
@@ -5065,7 +5099,7 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="1"/>
@@ -5141,7 +5175,7 @@
       </c>
       <c r="AB24" s="1">
         <f>SUM(AB2:AB22)</f>
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="20" x14ac:dyDescent="0.35">
@@ -5178,7 +5212,7 @@
       </c>
       <c r="I25" s="1">
         <f t="shared" si="3"/>
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="3"/>
@@ -5254,7 +5288,7 @@
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="3"/>
-        <v>14.428571428571429</v>
+        <v>14.476190476190476</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="60" x14ac:dyDescent="0.35">
@@ -5377,7 +5411,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" si="4"/>
-        <v>-0.39196474795109265</v>
+        <v>-0.47193990372426958</v>
       </c>
       <c r="J29" s="11">
         <f t="shared" si="4"/>
@@ -5453,7 +5487,7 @@
       </c>
       <c r="AB29" s="11">
         <f t="shared" si="4"/>
-        <v>0.59783566858378046</v>
+        <v>0.58550124544310211</v>
       </c>
     </row>
     <row r="30" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5486,7 +5520,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" si="5"/>
-        <v>-0.16666666666666669</v>
+        <v>-0.22360679774997891</v>
       </c>
       <c r="J30" s="11">
         <f t="shared" si="5"/>
@@ -5562,7 +5596,7 @@
       </c>
       <c r="AB30" s="11">
         <f t="shared" si="5"/>
-        <v>0.42008402520840299</v>
+        <v>0.41174701421524634</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5591,7 +5625,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" si="6"/>
-        <v>-0.6454972243679028</v>
+        <v>-0.57735026918962573</v>
       </c>
       <c r="J31" s="11">
         <f t="shared" si="6"/>
@@ -5667,7 +5701,7 @@
       </c>
       <c r="AB31" s="11">
         <f t="shared" si="6"/>
-        <v>0.48809353009197631</v>
+        <v>0.48846339804336436</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5692,7 +5726,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" si="7"/>
-        <v>-0.53333333333333321</v>
+        <v>-0.44721359549995782</v>
       </c>
       <c r="J32" s="11">
         <f t="shared" si="7"/>
@@ -5768,7 +5802,7 @@
       </c>
       <c r="AB32" s="11">
         <f t="shared" si="7"/>
-        <v>0.91298261478626197</v>
+        <v>0.91252040988243777</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5789,7 +5823,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" si="8"/>
-        <v>-0.73029674334022132</v>
+        <v>-0.61237243569579425</v>
       </c>
       <c r="J33" s="11">
         <f t="shared" si="8"/>
@@ -5865,7 +5899,7 @@
       </c>
       <c r="AB33" s="11">
         <f t="shared" si="8"/>
-        <v>0.82065253806668614</v>
+        <v>0.82285465501614163</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5882,7 +5916,7 @@
       </c>
       <c r="I34" s="11">
         <f t="shared" si="9"/>
-        <v>0.51729352653265692</v>
+        <v>0.40824829046386296</v>
       </c>
       <c r="J34" s="11">
         <f t="shared" si="9"/>
@@ -5958,7 +5992,7 @@
       </c>
       <c r="AB34" s="11">
         <f t="shared" si="9"/>
-        <v>-0.14061024795535124</v>
+        <v>-0.14730114194733401</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5971,7 +6005,7 @@
       </c>
       <c r="I35" s="11">
         <f t="shared" ref="I35:AB35" si="10">_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$H$2:$H$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.63639610306789285</v>
+        <v>-0.55339859052946638</v>
       </c>
       <c r="J35" s="11">
         <f t="shared" si="10"/>
@@ -6047,7 +6081,7 @@
       </c>
       <c r="AB35" s="11">
         <f t="shared" si="10"/>
-        <v>0.89707367393686677</v>
+        <v>0.89607039007147682</v>
       </c>
     </row>
     <row r="36" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6056,83 +6090,83 @@
       </c>
       <c r="I36" s="11">
         <f>_xlfn.LET(_xlpm.a,I$2:I$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="J36" s="11">
         <f t="shared" ref="J36:AB36" si="11">_xlfn.LET(_xlpm.a,J$2:J$22,_xlpm.b,$I$2:$I$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.88388347648318422</v>
+        <v>-0.79056941504209488</v>
       </c>
       <c r="K36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.45226701686664539</v>
+        <v>-0.33709993123162113</v>
       </c>
       <c r="L36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.66332495807108005</v>
+        <v>-0.53935988997059392</v>
       </c>
       <c r="M36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.16666666666666666</v>
+        <v>-0.22360679774997891</v>
       </c>
       <c r="N36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.4961389383568337</v>
+        <v>-0.34668762264076819</v>
       </c>
       <c r="O36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.76696498884737041</v>
+        <v>-0.6859943405700355</v>
       </c>
       <c r="P36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.20519567041703082</v>
+        <v>-0.22941573387056177</v>
       </c>
       <c r="Q36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.35355339059327379</v>
+        <v>-0.39528470752104755</v>
       </c>
       <c r="R36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.49852724275079069</v>
+        <v>-0.4287464628562721</v>
       </c>
       <c r="S36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.23008949665421108</v>
+        <v>-0.17149858514250885</v>
       </c>
       <c r="T36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.4961389383568337</v>
+        <v>-0.34668762264076813</v>
       </c>
       <c r="U36" s="11">
         <f t="shared" si="11"/>
-        <v>0.1414213562373095</v>
+        <v>0.15811388300841897</v>
       </c>
       <c r="V36" s="11">
         <f t="shared" si="11"/>
-        <v>0.2051956704170308</v>
+        <v>0.22941573387056172</v>
       </c>
       <c r="W36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.38890872965260109</v>
+        <v>-0.31622776601683794</v>
       </c>
       <c r="X36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.39196474795109265</v>
+        <v>-0.2696799449852969</v>
       </c>
       <c r="Y36" s="11">
         <f t="shared" si="11"/>
-        <v>0.25819888974716104</v>
+        <v>0.28867513459481287</v>
       </c>
       <c r="Z36" s="11">
         <f t="shared" si="11"/>
-        <v>0.23008949665421108</v>
+        <v>0.42874646285627199</v>
       </c>
       <c r="AA36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.4</v>
+        <v>-0.44721359549995776</v>
       </c>
       <c r="AB36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.59931987596398806</v>
+        <v>-0.49145169427102148</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6213,7 +6247,7 @@
       </c>
       <c r="AB37" s="11">
         <f t="shared" si="12"/>
-        <v>0.6267633947042347</v>
+        <v>0.62754435660329555</v>
       </c>
     </row>
     <row r="38" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6290,7 +6324,7 @@
       </c>
       <c r="AB38" s="11">
         <f t="shared" si="13"/>
-        <v>0.66116571822189329</v>
+        <v>0.66518981036730673</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6363,7 +6397,7 @@
       </c>
       <c r="AB39" s="11">
         <f t="shared" si="14"/>
-        <v>0.76756020161392191</v>
+        <v>0.77088201226677788</v>
       </c>
     </row>
     <row r="40" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6432,7 +6466,7 @@
       </c>
       <c r="AB40" s="11">
         <f t="shared" si="15"/>
-        <v>0.38087618285561858</v>
+        <v>0.37279797233002038</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6497,7 +6531,7 @@
       </c>
       <c r="AB41" s="11">
         <f t="shared" si="16"/>
-        <v>0.44810309091825928</v>
+        <v>0.45636018294256914</v>
       </c>
     </row>
     <row r="42" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6558,7 +6592,7 @@
       </c>
       <c r="AB42" s="11">
         <f t="shared" si="17"/>
-        <v>0.71526122215380517</v>
+        <v>0.71480748172604103</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6615,7 +6649,7 @@
       </c>
       <c r="AB43" s="11">
         <f t="shared" si="18"/>
-        <v>0.2456683560747509</v>
+        <v>0.24119241691679538</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6668,7 +6702,7 @@
       </c>
       <c r="AB44" s="11">
         <f t="shared" si="19"/>
-        <v>0.37130532861625276</v>
+        <v>0.36393638235614306</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6717,7 +6751,7 @@
       </c>
       <c r="AB45" s="11">
         <f t="shared" si="20"/>
-        <v>0.85058091283155213</v>
+        <v>0.84923396336407242</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6762,7 +6796,7 @@
       </c>
       <c r="AB46" s="11">
         <f t="shared" si="21"/>
-        <v>0.69270794037418071</v>
+        <v>0.69240306811970231</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6803,7 +6837,7 @@
       </c>
       <c r="AB47" s="11">
         <f t="shared" si="22"/>
-        <v>0.48457659831858263</v>
+        <v>0.49259293848810393</v>
       </c>
     </row>
     <row r="48" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6840,7 +6874,7 @@
       </c>
       <c r="AB48" s="11">
         <f t="shared" si="23"/>
-        <v>0.4752708206288036</v>
+        <v>0.47410090890719192</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6873,7 +6907,7 @@
       </c>
       <c r="AB49" s="11">
         <f t="shared" si="24"/>
-        <v>0.44823700055744015</v>
+        <v>0.44813265628327653</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6902,7 +6936,7 @@
       </c>
       <c r="AB50" s="11">
         <f t="shared" si="25"/>
-        <v>0.85548747713184647</v>
+        <v>0.8547586926148335</v>
       </c>
     </row>
     <row r="51" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6927,7 +6961,7 @@
       </c>
       <c r="AB51" s="11">
         <f t="shared" si="26"/>
-        <v>0.50917359909042326</v>
+        <v>0.51503977751012142</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6948,7 +6982,7 @@
       </c>
       <c r="AB52" s="11">
         <f t="shared" si="27"/>
-        <v>0.36155076303109368</v>
+        <v>0.36275590589985146</v>
       </c>
     </row>
     <row r="53" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6965,7 +6999,7 @@
       </c>
       <c r="AB53" s="11">
         <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.12887589588356849</v>
+        <v>-0.10988831435489883</v>
       </c>
     </row>
     <row r="54" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6978,7 +7012,7 @@
       </c>
       <c r="AB54" s="11">
         <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$AA$2:$AA$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.45929186756118717</v>
+        <v>0.45069605610047231</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">

--- a/fc-typology-data-generator-rev1.xlsx
+++ b/fc-typology-data-generator-rev1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/FCA-grammar-typology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D44202-A0B9-A24F-B42B-7AB221255215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D4C9AF-E9DB-984C-8AC1-E7F8082453B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27820" windowHeight="17500" tabRatio="730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="typology.data26" sheetId="1" r:id="rId1"/>
+    <sheet name="typology.data26c" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -650,16 +650,16 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Lucida Sans Unicode"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lucida Sans Unicode"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1012,35 +1012,35 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1319,7 +1319,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1338,7 +1338,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1357,7 +1357,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1376,7 +1376,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1395,7 +1395,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1413,7 +1413,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1431,7 +1431,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1449,7 +1449,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1467,7 +1467,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1485,7 +1485,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1503,7 +1503,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1521,7 +1521,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1539,7 +1539,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1557,7 +1557,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1575,7 +1575,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1593,7 +1593,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1611,7 +1611,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1629,7 +1629,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1647,7 +1647,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1665,7 +1665,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1683,7 +1683,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1701,7 +1701,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1719,7 +1719,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1737,7 +1737,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1755,7 +1755,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1773,7 +1773,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1791,7 +1791,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1809,7 +1809,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1827,7 +1827,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1845,7 +1845,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1862,7 +1862,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1887,7 +1887,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1911,7 +1911,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1935,7 +1935,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -1973,7 +1973,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2011,7 +2011,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2035,7 +2035,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2059,7 +2059,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2097,7 +2097,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2135,7 +2135,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2173,7 +2173,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2211,7 +2211,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2247,7 +2247,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2265,7 +2265,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2289,7 +2289,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2313,7 +2313,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2337,7 +2337,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2361,7 +2361,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2385,7 +2385,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2409,7 +2409,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2433,7 +2433,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2457,7 +2457,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2481,7 +2481,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2505,7 +2505,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2529,7 +2529,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2567,7 +2567,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2591,7 +2591,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2615,7 +2615,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2639,7 +2639,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -2663,7 +2663,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
@@ -3106,17 +3106,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="9700" ySplit="3540" topLeftCell="F18" activePane="bottomRight"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="8480" ySplit="3100" topLeftCell="L1" activePane="bottomRight"/>
       <selection sqref="A1:AA22"/>
       <selection pane="topRight" activeCell="AJ3" sqref="AJ3"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="19" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.375" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
     <col min="2" max="16" width="7.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="7.625" style="10" customWidth="1"/>
     <col min="18" max="22" width="7.625" style="1" customWidth="1"/>
@@ -3131,7 +3131,7 @@
     <col min="35" max="16384" width="7.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="AE2" s="1"/>
     </row>
-    <row r="3" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="AE3" s="1"/>
     </row>
-    <row r="4" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>44</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
         <v>1</v>
@@ -3477,11 +3477,11 @@
       </c>
       <c r="AB4" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE4" s="1"/>
     </row>
-    <row r="5" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="AE5" s="1"/>
     </row>
-    <row r="6" spans="1:31" ht="40" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>54</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="AE6" s="1"/>
     </row>
-    <row r="7" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="AE7" s="1"/>
     </row>
-    <row r="8" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3833,7 +3833,7 @@
       </c>
       <c r="AE8" s="1"/>
     </row>
-    <row r="9" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="AE9" s="1"/>
     </row>
-    <row r="10" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="AE10" s="1"/>
     </row>
-    <row r="11" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="AE11" s="1"/>
     </row>
-    <row r="12" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="AE12" s="1"/>
     </row>
-    <row r="13" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="6">
         <v>0</v>
@@ -4269,11 +4269,11 @@
       </c>
       <c r="AB13" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE13" s="1"/>
     </row>
-    <row r="14" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="AE14" s="1"/>
     </row>
-    <row r="15" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="AE15" s="1"/>
     </row>
-    <row r="16" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>12</v>
       </c>
@@ -4625,7 +4625,7 @@
       </c>
       <c r="AE17" s="1"/>
     </row>
-    <row r="18" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="AE18" s="1"/>
     </row>
-    <row r="19" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
@@ -4801,7 +4801,7 @@
       </c>
       <c r="AE19" s="1"/>
     </row>
-    <row r="20" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="AE20" s="1"/>
     </row>
-    <row r="21" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="AE21" s="1"/>
     </row>
-    <row r="22" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="AE22" s="1"/>
     </row>
-    <row r="24" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -5123,7 +5123,7 @@
       </c>
       <c r="O24" s="1">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" ref="P24" si="2">SUM(P2:P22)</f>
@@ -5131,7 +5131,7 @@
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="1"/>
@@ -5175,10 +5175,10 @@
       </c>
       <c r="AB24" s="1">
         <f>SUM(AB2:AB22)</f>
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="O25" s="1">
         <f t="shared" si="3"/>
-        <v>0.80952380952380953</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="P25" s="1">
         <f t="shared" si="3"/>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="3"/>
-        <v>0.23809523809523808</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="R25" s="1">
         <f t="shared" si="3"/>
@@ -5288,10 +5288,10 @@
       </c>
       <c r="AB25" s="1">
         <f t="shared" si="3"/>
-        <v>14.476190476190476</v>
+        <v>14.380952380952381</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="60" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" ht="63" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="O29" s="11">
         <f t="shared" si="4"/>
-        <v>0.46249729006288048</v>
+        <v>0.30914103871563514</v>
       </c>
       <c r="P29" s="11">
         <f t="shared" si="4"/>
@@ -5443,7 +5443,7 @@
       </c>
       <c r="Q29" s="11">
         <f t="shared" si="4"/>
-        <v>0.58630196997792883</v>
+        <v>0.5087470190691683</v>
       </c>
       <c r="R29" s="11">
         <f t="shared" si="4"/>
@@ -5487,7 +5487,7 @@
       </c>
       <c r="AB29" s="11">
         <f t="shared" si="4"/>
-        <v>0.58550124544310211</v>
+        <v>0.5727949742349937</v>
       </c>
     </row>
     <row r="30" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5544,7 +5544,7 @@
       </c>
       <c r="O30" s="11">
         <f t="shared" si="5"/>
-        <v>0.3067859955389482</v>
+        <v>0.10606601717798209</v>
       </c>
       <c r="P30" s="11">
         <f t="shared" si="5"/>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="Q30" s="11">
         <f t="shared" si="5"/>
-        <v>0.3889087296526012</v>
+        <v>0.4985272427507908</v>
       </c>
       <c r="R30" s="11">
         <f t="shared" si="5"/>
@@ -5596,7 +5596,7 @@
       </c>
       <c r="AB30" s="11">
         <f t="shared" si="5"/>
-        <v>0.41174701421524634</v>
+        <v>0.40748989888183507</v>
       </c>
     </row>
     <row r="31" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="O31" s="11">
         <f t="shared" si="6"/>
-        <v>0.49507377148833731</v>
+        <v>0.41079191812887472</v>
       </c>
       <c r="P31" s="11">
         <f t="shared" si="6"/>
@@ -5657,7 +5657,7 @@
       </c>
       <c r="Q31" s="11">
         <f t="shared" si="6"/>
-        <v>0.22821773229381925</v>
+        <v>0.1980295085953348</v>
       </c>
       <c r="R31" s="11">
         <f t="shared" si="6"/>
@@ -5701,7 +5701,7 @@
       </c>
       <c r="AB31" s="11">
         <f t="shared" si="6"/>
-        <v>0.48846339804336436</v>
+        <v>0.48615865136480535</v>
       </c>
     </row>
     <row r="32" spans="1:31" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="O32" s="11">
         <f t="shared" si="7"/>
-        <v>0.76696498884737041</v>
+        <v>0.63639610306789263</v>
       </c>
       <c r="P32" s="11">
         <f t="shared" si="7"/>
@@ -5758,7 +5758,7 @@
       </c>
       <c r="Q32" s="11">
         <f t="shared" si="7"/>
-        <v>0.35355339059327379</v>
+        <v>0.30678599553894798</v>
       </c>
       <c r="R32" s="11">
         <f t="shared" si="7"/>
@@ -5802,7 +5802,7 @@
       </c>
       <c r="AB32" s="11">
         <f t="shared" si="7"/>
-        <v>0.91252040988243777</v>
+        <v>0.91052915336354856</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="O33" s="11">
         <f t="shared" si="8"/>
-        <v>0.56011203361120399</v>
+        <v>0.6454972243679028</v>
       </c>
       <c r="P33" s="11">
         <f t="shared" si="8"/>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="Q33" s="11">
         <f t="shared" si="8"/>
-        <v>0.2581988897471611</v>
+        <v>0.1750350105035012</v>
       </c>
       <c r="R33" s="11">
         <f t="shared" si="8"/>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="AB33" s="11">
         <f t="shared" si="8"/>
-        <v>0.82285465501614163</v>
+        <v>0.83376101277300074</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="O34" s="11">
         <f t="shared" si="9"/>
-        <v>-0.31506301890630223</v>
+        <v>-0.41957319583913694</v>
       </c>
       <c r="P34" s="11">
         <f t="shared" si="9"/>
@@ -5948,7 +5948,7 @@
       </c>
       <c r="Q34" s="11">
         <f t="shared" si="9"/>
-        <v>-0.25819888974716115</v>
+        <v>-0.1750350105035012</v>
       </c>
       <c r="R34" s="11">
         <f t="shared" si="9"/>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="AB34" s="11">
         <f t="shared" si="9"/>
-        <v>-0.14730114194733401</v>
+        <v>-0.15135969154956014</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6029,7 +6029,7 @@
       </c>
       <c r="O35" s="11">
         <f t="shared" si="10"/>
-        <v>0.86772183127462488</v>
+        <v>0.73749999999999982</v>
       </c>
       <c r="P35" s="11">
         <f t="shared" si="10"/>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="Q35" s="11">
         <f t="shared" si="10"/>
-        <v>0.3125</v>
+        <v>0.27116307227332009</v>
       </c>
       <c r="R35" s="11">
         <f t="shared" si="10"/>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="AB35" s="11">
         <f t="shared" si="10"/>
-        <v>0.89607039007147682</v>
+        <v>0.8952176639954964</v>
       </c>
     </row>
     <row r="36" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="O36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.6859943405700355</v>
+        <v>-0.79056941504209488</v>
       </c>
       <c r="P36" s="11">
         <f t="shared" si="11"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="Q36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.39528470752104755</v>
+        <v>-0.34299717028501753</v>
       </c>
       <c r="R36" s="11">
         <f t="shared" si="11"/>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="AB36" s="11">
         <f t="shared" si="11"/>
-        <v>-0.49145169427102148</v>
+        <v>-0.50271730430030281</v>
       </c>
     </row>
     <row r="37" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="O37" s="11">
         <f t="shared" si="12"/>
-        <v>0.86772183127462488</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="P37" s="11">
         <f t="shared" si="12"/>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="Q37" s="11">
         <f t="shared" si="12"/>
-        <v>0.3125</v>
+        <v>0.27116307227332009</v>
       </c>
       <c r="R37" s="11">
         <f t="shared" si="12"/>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="AB37" s="11">
         <f t="shared" si="12"/>
-        <v>0.62754435660329555</v>
+        <v>0.644834921124392</v>
       </c>
     </row>
     <row r="38" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="O38" s="11">
         <f t="shared" si="13"/>
-        <v>0.50874701906916853</v>
+        <v>0.58630196997792872</v>
       </c>
       <c r="P38" s="11">
         <f t="shared" si="13"/>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="Q38" s="11">
         <f t="shared" si="13"/>
-        <v>-0.13858046563114682</v>
+        <v>-2.3124864503144001E-2</v>
       </c>
       <c r="R38" s="11">
         <f t="shared" si="13"/>
@@ -6324,7 +6324,7 @@
       </c>
       <c r="AB38" s="11">
         <f t="shared" si="13"/>
-        <v>0.66518981036730673</v>
+        <v>0.69057382248745525</v>
       </c>
     </row>
     <row r="39" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="O39" s="11">
         <f t="shared" si="14"/>
-        <v>0.50874701906916853</v>
+        <v>0.58630196997792872</v>
       </c>
       <c r="P39" s="11">
         <f t="shared" si="14"/>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="Q39" s="11">
         <f t="shared" si="14"/>
-        <v>8.5280286542244205E-2</v>
+        <v>-2.3124864503143949E-2</v>
       </c>
       <c r="R39" s="11">
         <f t="shared" si="14"/>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="AB39" s="11">
         <f t="shared" si="14"/>
-        <v>0.77088201226677788</v>
+        <v>0.77954345605945863</v>
       </c>
     </row>
     <row r="40" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="O40" s="11">
         <f t="shared" si="15"/>
-        <v>0.3067859955389482</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="P40" s="11">
         <f t="shared" si="15"/>
@@ -6422,7 +6422,7 @@
       </c>
       <c r="Q40" s="11">
         <f t="shared" si="15"/>
-        <v>-0.1060660171779822</v>
+        <v>-3.834824944236849E-2</v>
       </c>
       <c r="R40" s="11">
         <f t="shared" si="15"/>
@@ -6466,7 +6466,7 @@
       </c>
       <c r="AB40" s="11">
         <f t="shared" si="15"/>
-        <v>0.37279797233002038</v>
+        <v>0.38781797272891888</v>
       </c>
     </row>
     <row r="41" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="O41" s="11">
         <f t="shared" ref="O41:AB41" si="16">_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$N$2:$N$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.38052119532359541</v>
+        <v>0.43852900965351471</v>
       </c>
       <c r="P41" s="11">
         <f t="shared" si="16"/>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="Q41" s="11">
         <f t="shared" si="16"/>
-        <v>0.25215418055077105</v>
+        <v>0.11891287353862352</v>
       </c>
       <c r="R41" s="11">
         <f t="shared" si="16"/>
@@ -6531,7 +6531,7 @@
       </c>
       <c r="AB41" s="11">
         <f t="shared" si="16"/>
-        <v>0.45636018294256914</v>
+        <v>0.45662897177120887</v>
       </c>
     </row>
     <row r="42" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6540,59 +6540,59 @@
       </c>
       <c r="O42" s="11">
         <f>_xlfn.LET(_xlpm.a,O$2:O$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="P42" s="11">
         <f t="shared" ref="P42:AB42" si="17">_xlfn.LET(_xlpm.a,P$2:P$22,_xlpm.b,$O$2:$O$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.15737789507292682</v>
+        <v>0.1813690625275029</v>
       </c>
       <c r="Q42" s="11">
         <f t="shared" si="17"/>
-        <v>0.27116307227332026</v>
+        <v>0.27116307227332009</v>
       </c>
       <c r="R42" s="11">
         <f t="shared" si="17"/>
-        <v>0.69117647058823528</v>
+        <v>0.58300060538763854</v>
       </c>
       <c r="S42" s="11">
         <f t="shared" si="17"/>
-        <v>0.38235294117647056</v>
+        <v>0.2982793795006522</v>
       </c>
       <c r="T42" s="11">
         <f t="shared" si="17"/>
-        <v>0.38052119532359546</v>
+        <v>0.43852900965351471</v>
       </c>
       <c r="U42" s="11">
         <f t="shared" si="17"/>
-        <v>-0.10846522890932811</v>
+        <v>-0.125</v>
       </c>
       <c r="V42" s="11">
         <f t="shared" si="17"/>
-        <v>-0.15737789507292679</v>
+        <v>-0.18136906252750287</v>
       </c>
       <c r="W42" s="11">
         <f t="shared" si="17"/>
-        <v>0.58300060538763865</v>
+        <v>0.47499999999999987</v>
       </c>
       <c r="X42" s="11">
         <f t="shared" si="17"/>
-        <v>0.46249729006288048</v>
+        <v>0.30914103871563514</v>
       </c>
       <c r="Y42" s="11">
         <f t="shared" si="17"/>
-        <v>-0.19802950859533489</v>
+        <v>-0.22821773229381925</v>
       </c>
       <c r="Z42" s="11">
         <f t="shared" si="17"/>
-        <v>-7.3529411764705843E-2</v>
+        <v>-0.29827937950065231</v>
       </c>
       <c r="AA42" s="11">
         <f t="shared" si="17"/>
-        <v>0.3067859955389482</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AB42" s="11">
         <f t="shared" si="17"/>
-        <v>0.71480748172604103</v>
+        <v>0.644834921124392</v>
       </c>
     </row>
     <row r="43" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="Q43" s="11">
         <f t="shared" ref="Q43:AB43" si="18">_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$P$2:$P$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.58038100008800908</v>
+        <v>0.25573907949350577</v>
       </c>
       <c r="R43" s="11">
         <f t="shared" si="18"/>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="AB43" s="11">
         <f t="shared" si="18"/>
-        <v>0.24119241691679538</v>
+        <v>0.21912939266142056</v>
       </c>
     </row>
     <row r="44" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6658,51 +6658,51 @@
       </c>
       <c r="Q44" s="11">
         <f>_xlfn.LET(_xlpm.a,Q$2:Q$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="R44" s="11">
         <f t="shared" ref="R44:AB44" si="19">_xlfn.LET(_xlpm.a,R$2:R$22,_xlpm.b,$Q$2:$Q$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.2711630722733202</v>
+        <v>0.23529411764705876</v>
       </c>
       <c r="S44" s="11">
         <f t="shared" si="19"/>
-        <v>-1.3558153613666012E-2</v>
+        <v>-7.3529411764705774E-2</v>
       </c>
       <c r="T44" s="11">
         <f t="shared" si="19"/>
-        <v>-0.20830127958541941</v>
+        <v>-0.38052119532359546</v>
       </c>
       <c r="U44" s="11">
         <f t="shared" si="19"/>
-        <v>0.12499999999999999</v>
+        <v>0.10846522890932805</v>
       </c>
       <c r="V44" s="11">
         <f t="shared" si="19"/>
-        <v>0.18136906252750284</v>
+        <v>0.15737789507292674</v>
       </c>
       <c r="W44" s="11">
         <f t="shared" si="19"/>
-        <v>0.3125</v>
+        <v>0.27116307227332009</v>
       </c>
       <c r="X44" s="11">
         <f t="shared" si="19"/>
-        <v>-0.30914103871563514</v>
+        <v>-0.46249729006288032</v>
       </c>
       <c r="Y44" s="11">
         <f t="shared" si="19"/>
-        <v>0.22821773229381925</v>
+        <v>0.19802950859533477</v>
       </c>
       <c r="Z44" s="11">
         <f t="shared" si="19"/>
-        <v>-0.2711630722733202</v>
+        <v>-0.23529411764705885</v>
       </c>
       <c r="AA44" s="11">
         <f t="shared" si="19"/>
-        <v>0.88388347648318466</v>
+        <v>0.7669649888473703</v>
       </c>
       <c r="AB44" s="11">
         <f t="shared" si="19"/>
-        <v>0.36393638235614306</v>
+        <v>0.28235512850636746</v>
       </c>
     </row>
     <row r="45" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6751,7 +6751,7 @@
       </c>
       <c r="AB45" s="11">
         <f t="shared" si="20"/>
-        <v>0.84923396336407242</v>
+        <v>0.84922076817945624</v>
       </c>
     </row>
     <row r="46" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6796,7 +6796,7 @@
       </c>
       <c r="AB46" s="11">
         <f t="shared" si="21"/>
-        <v>0.69240306811970231</v>
+        <v>0.69080014264344103</v>
       </c>
     </row>
     <row r="47" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="AB47" s="11">
         <f t="shared" si="22"/>
-        <v>0.49259293848810393</v>
+        <v>0.49322900385974083</v>
       </c>
     </row>
     <row r="48" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6874,7 +6874,7 @@
       </c>
       <c r="AB48" s="11">
         <f t="shared" si="23"/>
-        <v>0.47410090890719192</v>
+        <v>0.47493234560471376</v>
       </c>
     </row>
     <row r="49" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="AB49" s="11">
         <f t="shared" si="24"/>
-        <v>0.44813265628327653</v>
+        <v>0.44690862977000234</v>
       </c>
     </row>
     <row r="50" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="AB50" s="11">
         <f t="shared" si="25"/>
-        <v>0.8547586926148335</v>
+        <v>0.85348720685031232</v>
       </c>
     </row>
     <row r="51" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="AB51" s="11">
         <f t="shared" si="26"/>
-        <v>0.51503977751012142</v>
+        <v>0.50161926737739093</v>
       </c>
     </row>
     <row r="52" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="AB52" s="11">
         <f t="shared" si="27"/>
-        <v>0.36275590589985146</v>
+        <v>0.35917691406802782</v>
       </c>
     </row>
     <row r="53" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6999,7 +6999,7 @@
       </c>
       <c r="AB53" s="11">
         <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$Z$2:$Z$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>-0.10988831435489883</v>
+        <v>-0.12501219430052904</v>
       </c>
     </row>
     <row r="54" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7012,7 +7012,7 @@
       </c>
       <c r="AB54" s="11">
         <f>_xlfn.LET(_xlpm.a,AB$2:AB$22,_xlpm.b,$AA$2:$AA$22,CORREL(_xlpm.a,_xlpm.b))</f>
-        <v>0.45069605610047231</v>
+        <v>0.44683375118766744</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">
